--- a/RecognitionSystems/Lab5WaveletFeatures/sample_features.xlsx
+++ b/RecognitionSystems/Lab5WaveletFeatures/sample_features.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="555" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="1005" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="117">
   <si>
     <t>Lvl1. STD approx</t>
   </si>
@@ -281,6 +281,90 @@
   </si>
   <si>
     <t>Sample</t>
+  </si>
+  <si>
+    <t>Lvl1. lim. Horizontal</t>
+  </si>
+  <si>
+    <t>Lvl1. lim. Vertical</t>
+  </si>
+  <si>
+    <t>Lvl1. lim. Diagonal</t>
+  </si>
+  <si>
+    <t>Lvl1. NPIM</t>
+  </si>
+  <si>
+    <t>Lvl2. lim. Horizontal</t>
+  </si>
+  <si>
+    <t>Lvl2. lim. Vertical</t>
+  </si>
+  <si>
+    <t>Lvl2. lim. Diagonal</t>
+  </si>
+  <si>
+    <t>Lvl2. NPIM</t>
+  </si>
+  <si>
+    <t>Lvl3. lim. Horizontal</t>
+  </si>
+  <si>
+    <t>Lvl3. lim. Vertical</t>
+  </si>
+  <si>
+    <t>Lvl3. lim. Diagonal</t>
+  </si>
+  <si>
+    <t>Lvl3. NPIM</t>
+  </si>
+  <si>
+    <t>Lvl4. lim. Horizontal</t>
+  </si>
+  <si>
+    <t>Lvl4. lim. Vertical</t>
+  </si>
+  <si>
+    <t>Lvl4. lim. Diagonal</t>
+  </si>
+  <si>
+    <t>Lvl4. NPIM</t>
+  </si>
+  <si>
+    <t>Lvl5. lim. Horizontal</t>
+  </si>
+  <si>
+    <t>Lvl5. lim. Vertical</t>
+  </si>
+  <si>
+    <t>Lvl5. lim. Diagonal</t>
+  </si>
+  <si>
+    <t>Lvl5. NPIM</t>
+  </si>
+  <si>
+    <t>Lvl6. lim. Horizontal</t>
+  </si>
+  <si>
+    <t>Lvl6. lim. Vertical</t>
+  </si>
+  <si>
+    <t>Lvl6. lim. Diagonal</t>
+  </si>
+  <si>
+    <t>Lvl6. NPIM</t>
+  </si>
+  <si>
+    <t>Lvl7. lim. Horizontal</t>
+  </si>
+  <si>
+    <t>Lvl7. lim. Vertical</t>
+  </si>
+  <si>
+    <t>Lvl7. lim. Diagonal</t>
+  </si>
+  <si>
+    <t>Lvl7. NPIM</t>
   </si>
 </sst>
 </file>
@@ -289,7 +373,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -338,11 +422,11 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -648,10 +732,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:FN11"/>
+  <dimension ref="A1:GP11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="AM1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AT20" sqref="AT20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -667,417 +751,520 @@
     <col min="10" max="10" width="23" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="36.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="28" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="26.140625" customWidth="1"/>
-    <col min="31" max="31" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="37" max="38" width="28" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="48" max="49" width="28" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="59" max="60" width="28" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="15.7109375" customWidth="1"/>
-    <col min="69" max="69" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="70" max="71" width="28" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="26.140625" customWidth="1"/>
-    <col min="75" max="75" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="23.28515625" customWidth="1"/>
-    <col min="77" max="77" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="15.7109375" customWidth="1"/>
-    <col min="80" max="80" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="81" max="82" width="28" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="22" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="22" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="23" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="36.140625" customWidth="1"/>
+    <col min="17" max="17" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="20" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="31" width="24.42578125" customWidth="1"/>
+    <col min="32" max="32" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="35" width="28" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="26.140625" customWidth="1"/>
+    <col min="39" max="39" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="43" max="46" width="22.28515625" customWidth="1"/>
+    <col min="47" max="47" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="49" max="50" width="28" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="58" max="61" width="22.28515625" customWidth="1"/>
+    <col min="62" max="62" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="64" max="65" width="28" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="73" max="76" width="22.28515625" customWidth="1"/>
+    <col min="77" max="77" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="79" max="80" width="28" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="88" max="91" width="22.28515625" customWidth="1"/>
+    <col min="92" max="92" width="15.7109375" customWidth="1"/>
+    <col min="93" max="93" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="94" max="95" width="28" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="26.140625" customWidth="1"/>
+    <col min="99" max="99" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="23.28515625" customWidth="1"/>
+    <col min="101" max="101" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="103" max="106" width="22.28515625" customWidth="1"/>
+    <col min="107" max="107" width="15.7109375" customWidth="1"/>
+    <col min="108" max="108" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="109" max="110" width="28" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="116" max="116" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="122" max="122" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="125" max="125" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="22" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="22" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="132" max="132" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="22" bestFit="1" customWidth="1"/>
     <col min="134" max="134" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="136" max="136" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="139" max="139" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="140" max="140" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="141" max="141" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="142" max="142" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="143" max="143" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="144" max="144" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="145" max="145" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="146" max="146" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="147" max="147" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="148" max="148" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="149" max="149" width="22" bestFit="1" customWidth="1"/>
-    <col min="150" max="151" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="152" max="152" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="153" max="155" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="156" max="156" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="157" max="159" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="160" max="160" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="161" max="170" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="23" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="139" max="139" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="140" max="140" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="143" max="143" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="145" max="145" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="147" max="147" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="148" max="148" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="149" max="149" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="150" max="150" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="151" max="151" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="152" max="152" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="153" max="153" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="154" max="154" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="155" max="155" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="156" max="156" width="22" bestFit="1" customWidth="1"/>
+    <col min="157" max="157" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="158" max="158" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="159" max="159" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="160" max="160" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="161" max="161" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="162" max="162" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="163" max="163" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="164" max="164" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="165" max="165" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="167" max="167" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="168" max="168" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="169" max="169" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="170" max="170" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="171" max="171" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="172" max="172" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="173" max="173" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="174" max="174" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="175" max="175" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="176" max="176" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="177" max="177" width="22" bestFit="1" customWidth="1"/>
+    <col min="178" max="179" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="180" max="180" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="181" max="183" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="184" max="184" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="185" max="187" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="188" max="188" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="189" max="198" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:170" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:198" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="R1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="S1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="T1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="U1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
+      <c r="V1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="S1" t="s">
+      <c r="W1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T1" t="s">
+      <c r="X1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="U1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Z1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AA1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AB1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AG1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AH1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AI1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AK1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AL1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AM1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AN1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AO1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AP1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AQ1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AS1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AT1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AU1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AV1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AW1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AX1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AY1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AZ1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="BA1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="BB1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="BC1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="BD1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="BE1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="BF1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="BG1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="BH1" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="BI1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="BK1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="BL1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="BM1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="BN1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="BO1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BP1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BQ1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BR1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BS1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BT1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BU1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="BV1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="BW1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="BX1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="BY1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BZ1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="CA1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="CB1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="CC1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="CD1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="CE1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="CF1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="CG1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="CH1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="CI1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="CJ1" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="CK1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="CL1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="CM1" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CN1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="CO1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="CP1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="CQ1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="CR1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="CS1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="CT1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="CU1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="CV1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="CW1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="CX1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="CA1" t="s">
+      <c r="CY1" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="CZ1" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="DA1" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="DB1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="DC1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="CB1" t="s">
+      <c r="DD1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="CC1" t="s">
+      <c r="DE1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="CD1" t="s">
+      <c r="DF1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="CE1" t="s">
+      <c r="DG1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="CF1" t="s">
+      <c r="DH1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="CG1" t="s">
+      <c r="DI1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="CH1" t="s">
+      <c r="DJ1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="CI1" t="s">
+      <c r="DK1" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="CJ1" t="s">
+      <c r="DL1" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="CK1" t="s">
+      <c r="DM1" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="DN1" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="DO1" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="DP1" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="DQ1" s="2" t="s">
+        <v>116</v>
+      </c>
     </row>
-    <row r="2" spans="1:170" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:198" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="1">
@@ -1114,268 +1301,332 @@
         <v>0.39256991347054498</v>
       </c>
       <c r="M2" s="2">
+        <v>11.0840595223801</v>
+      </c>
+      <c r="N2" s="2">
+        <v>267.21698208014601</v>
+      </c>
+      <c r="O2" s="2">
+        <v>90.875300893814298</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.73344421386718694</v>
+      </c>
+      <c r="Q2" s="2">
         <v>95.733062694043298</v>
       </c>
-      <c r="N2" s="2">
+      <c r="R2" s="2">
         <v>9789801.30859375</v>
       </c>
-      <c r="O2" s="2">
+      <c r="S2" s="2">
         <v>48.887969013307398</v>
       </c>
-      <c r="P2" s="2">
+      <c r="T2" s="2">
         <v>273308.21484375</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="U2" s="2">
         <v>8.1685151508343701</v>
       </c>
-      <c r="R2" s="2">
+      <c r="V2" s="2">
         <v>231530.27734375</v>
       </c>
-      <c r="S2" s="2">
+      <c r="W2" s="2">
         <v>7.5183667955649502</v>
       </c>
-      <c r="T2" s="2">
+      <c r="X2" s="2">
         <v>0.53541196085918896</v>
       </c>
-      <c r="U2" s="2">
+      <c r="Y2" s="2">
         <v>0.50160305962037299</v>
       </c>
-      <c r="V2" s="2">
+      <c r="Z2" s="2">
         <v>0.45045584437304398</v>
       </c>
-      <c r="W2" s="2">
+      <c r="AA2" s="2">
         <v>0.84422977576879599</v>
       </c>
-      <c r="X2" s="2">
+      <c r="AB2" s="2">
+        <v>6.29135383431466</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>153.827267958394</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>36.223409293239797</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>0.73344421386718694</v>
+      </c>
+      <c r="AF2" s="2">
         <v>72.239945847279998</v>
       </c>
-      <c r="Y2" s="2">
+      <c r="AG2" s="2">
         <v>3824691.23120117</v>
       </c>
-      <c r="Z2" s="2">
+      <c r="AH2" s="2">
         <v>61.098394631442702</v>
       </c>
-      <c r="AA2" s="2">
+      <c r="AI2" s="2">
         <v>106571.637451171</v>
       </c>
-      <c r="AB2" s="2">
+      <c r="AJ2" s="2">
         <v>10.201634869801801</v>
       </c>
-      <c r="AC2" s="2">
+      <c r="AK2" s="2">
         <v>109655.676513671</v>
       </c>
-      <c r="AD2" s="2">
+      <c r="AL2" s="2">
         <v>10.3471872725362</v>
       </c>
-      <c r="AE2" s="2">
+      <c r="AM2" s="2">
         <v>0.77035784213251102</v>
       </c>
-      <c r="AF2" s="2">
+      <c r="AN2" s="2">
         <v>0.75671822821647905</v>
       </c>
-      <c r="AG2" s="2">
+      <c r="AO2" s="2">
         <v>0.66975252662188101</v>
       </c>
-      <c r="AH2" s="2">
+      <c r="AP2" s="2">
         <v>1.2681142650289301</v>
       </c>
-      <c r="AI2" s="2">
+      <c r="AQ2" s="2">
+        <v>3.8694388920258298</v>
+      </c>
+      <c r="AR2" s="2">
+        <v>94.381699395474499</v>
+      </c>
+      <c r="AS2" s="2">
+        <v>22.9679764885312</v>
+      </c>
+      <c r="AT2" s="2">
+        <v>0.73344421386718694</v>
+      </c>
+      <c r="AU2" s="2">
         <v>51.298198606746197</v>
       </c>
-      <c r="AJ2" s="2">
+      <c r="AV2" s="2">
         <v>580842.35966491699</v>
       </c>
-      <c r="AK2" s="2">
+      <c r="AW2" s="2">
         <v>47.6311166428587</v>
       </c>
-      <c r="AL2" s="2">
+      <c r="AX2" s="2">
         <v>30707.797286987301</v>
       </c>
-      <c r="AM2" s="2">
+      <c r="AY2" s="2">
         <v>10.9491546759357</v>
       </c>
-      <c r="AN2" s="2">
+      <c r="AZ2" s="2">
         <v>50748.619552612297</v>
       </c>
-      <c r="AO2" s="2">
+      <c r="BA2" s="2">
         <v>14.0647282643598</v>
       </c>
-      <c r="AP2" s="2">
+      <c r="BB2" s="2">
         <v>0.919878821950325</v>
       </c>
-      <c r="AQ2" s="2">
+      <c r="BC2" s="2">
         <v>0.98430901070805799</v>
       </c>
-      <c r="AR2" s="2">
+      <c r="BD2" s="2">
         <v>1.17306618575803</v>
       </c>
-      <c r="AS2" s="2">
+      <c r="BE2" s="2">
         <v>1.53304598569923</v>
       </c>
-      <c r="AT2" s="2">
+      <c r="BF2" s="2">
+        <v>5.4192695019215797</v>
+      </c>
+      <c r="BG2" s="2">
+        <v>39.073020425774502</v>
+      </c>
+      <c r="BH2" s="2">
+        <v>15.1383871477239</v>
+      </c>
+      <c r="BI2" s="2">
+        <v>0.73344421386718694</v>
+      </c>
+      <c r="BJ2" s="2">
         <v>33.6698467238662</v>
       </c>
-      <c r="AU2" s="2">
+      <c r="BK2" s="2">
         <v>77367.241990089402</v>
       </c>
-      <c r="AV2" s="2">
+      <c r="BL2" s="2">
         <v>34.275477726533303</v>
       </c>
-      <c r="AW2" s="2">
+      <c r="BM2" s="2">
         <v>7997.9097795486396</v>
       </c>
-      <c r="AX2" s="2">
+      <c r="BN2" s="2">
         <v>11.1479261387195</v>
       </c>
-      <c r="AY2" s="2">
+      <c r="BO2" s="2">
         <v>10497.0307512283</v>
       </c>
-      <c r="AZ2" s="2">
+      <c r="BP2" s="2">
         <v>12.8063943132862</v>
       </c>
-      <c r="BA2" s="2">
+      <c r="BQ2" s="2">
         <v>1.2788988715593399</v>
       </c>
-      <c r="BB2" s="2">
+      <c r="BR2" s="2">
         <v>1.22790636439293</v>
       </c>
-      <c r="BC2" s="2">
+      <c r="BS2" s="2">
         <v>2.1017685726073001</v>
       </c>
-      <c r="BD2" s="2">
+      <c r="BT2" s="2">
         <v>2.2540870703950802</v>
       </c>
-      <c r="BE2" s="2">
+      <c r="BU2" s="2">
+        <v>10.850102193149899</v>
+      </c>
+      <c r="BV2" s="2">
+        <v>12.9752129163486</v>
+      </c>
+      <c r="BW2" s="2">
+        <v>9.5005595985413098</v>
+      </c>
+      <c r="BX2" s="2">
+        <v>0.73344421386718694</v>
+      </c>
+      <c r="BY2" s="2">
         <v>24.5098210276043</v>
       </c>
-      <c r="BF2" s="2">
+      <c r="BZ2" s="2">
         <v>3279.2881780266698</v>
       </c>
-      <c r="BG2" s="2">
+      <c r="CA2" s="2">
         <v>14.299215503854001</v>
       </c>
-      <c r="BH2" s="2">
+      <c r="CB2" s="2">
         <v>2428.4236474633199</v>
       </c>
-      <c r="BI2" s="2">
+      <c r="CC2" s="2">
         <v>12.2519592356955</v>
       </c>
-      <c r="BJ2" s="2">
+      <c r="CD2" s="2">
         <v>2819.1242001652699</v>
       </c>
-      <c r="BK2" s="2">
+      <c r="CE2" s="2">
         <v>13.2650852796246</v>
       </c>
-      <c r="BL2" s="2">
+      <c r="CF2" s="2">
         <v>1.7996236688838201</v>
       </c>
-      <c r="BM2" s="2">
+      <c r="CG2" s="2">
         <v>2.0179740233994701</v>
       </c>
-      <c r="BN2" s="2">
+      <c r="CH2" s="2">
         <v>1.9899446354665</v>
       </c>
-      <c r="BO2" s="2">
+      <c r="CI2" s="2">
         <v>1.95847669483256</v>
       </c>
-      <c r="BP2" s="2">
+      <c r="CJ2" s="2">
+        <v>4.2400014838714597</v>
+      </c>
+      <c r="CK2" s="2">
+        <v>8.8558535672537406</v>
+      </c>
+      <c r="CL2" s="2">
+        <v>8.2691225106630597</v>
+      </c>
+      <c r="CM2" s="2">
+        <v>0.73344421386718694</v>
+      </c>
+      <c r="CN2" s="2">
         <v>8.9836753823026907</v>
       </c>
-      <c r="BQ2" s="2">
+      <c r="CO2" s="2">
         <v>1764.5292682684899</v>
       </c>
-      <c r="BR2" s="2">
+      <c r="CP2" s="2">
         <v>16.189352306179899</v>
       </c>
-      <c r="BS2" s="2">
+      <c r="CQ2" s="2">
         <v>170.778089080005</v>
       </c>
-      <c r="BT2" s="2">
+      <c r="CR2" s="2">
         <v>6.4172214992432401</v>
       </c>
-      <c r="BU2" s="2">
+      <c r="CS2" s="2">
         <v>144.79225637391201</v>
       </c>
-      <c r="BV2" s="2">
+      <c r="CT2" s="2">
         <v>5.8577026780333803</v>
       </c>
-      <c r="BW2" s="2">
+      <c r="CU2" s="2">
         <v>-8.76906495220857</v>
       </c>
-      <c r="BX2" s="2">
+      <c r="CV2" s="2">
         <v>-2.0685526803853702</v>
       </c>
-      <c r="BY2" s="2">
+      <c r="CW2" s="2">
         <v>-11.468308985328401</v>
       </c>
-      <c r="BZ2" s="2">
+      <c r="CX2" s="2">
         <v>-17.919015975481699</v>
       </c>
-      <c r="CA2" s="2">
-        <v>0</v>
-      </c>
-      <c r="CB2" s="2">
+      <c r="CY2" s="2">
+        <v>2.0936972236182099</v>
+      </c>
+      <c r="CZ2" s="2">
+        <v>2.4531820214417399</v>
+      </c>
+      <c r="DA2" s="2">
+        <v>2.3438095863306798</v>
+      </c>
+      <c r="DB2" s="2">
+        <v>0.73344421386718694</v>
+      </c>
+      <c r="DC2" s="2">
+        <v>0</v>
+      </c>
+      <c r="DD2" s="2">
         <v>2.3061473688576299</v>
       </c>
-      <c r="CC2" s="2">
-        <v>0</v>
-      </c>
-      <c r="CD2" s="2">
+      <c r="DE2" s="2">
+        <v>0</v>
+      </c>
+      <c r="DF2" s="2">
         <v>1.46374700614251</v>
       </c>
-      <c r="CE2" s="2">
-        <v>0</v>
-      </c>
-      <c r="CF2" s="2">
+      <c r="DG2" s="2">
+        <v>0</v>
+      </c>
+      <c r="DH2" s="2">
         <v>76.936528999591204</v>
       </c>
-      <c r="CG2" s="2">
-        <v>0</v>
-      </c>
-      <c r="CH2" s="2">
-        <v>0</v>
-      </c>
-      <c r="CI2" s="2">
-        <v>0</v>
-      </c>
-      <c r="CJ2" s="2">
-        <v>0</v>
-      </c>
-      <c r="CK2" s="2">
-        <v>0</v>
-      </c>
-      <c r="CL2" s="2"/>
-      <c r="CM2" s="2"/>
-      <c r="CN2" s="2"/>
-      <c r="CO2" s="2"/>
-      <c r="CP2" s="2"/>
-      <c r="CQ2" s="2"/>
-      <c r="CR2" s="2"/>
-      <c r="CS2" s="2"/>
-      <c r="CT2" s="2"/>
-      <c r="CU2" s="2"/>
-      <c r="CV2" s="2"/>
-      <c r="CW2" s="2"/>
-      <c r="CX2" s="2"/>
-      <c r="CY2" s="2"/>
-      <c r="CZ2" s="2"/>
-      <c r="DA2" s="2"/>
-      <c r="DB2" s="2"/>
-      <c r="DC2" s="2"/>
-      <c r="DD2" s="2"/>
-      <c r="DE2" s="2"/>
-      <c r="DF2" s="2"/>
-      <c r="DG2" s="2"/>
-      <c r="DH2" s="2"/>
-      <c r="DI2" s="2"/>
-      <c r="DJ2" s="2"/>
-      <c r="DK2" s="2"/>
-      <c r="DL2" s="2"/>
-      <c r="DM2" s="2"/>
-      <c r="DN2" s="2"/>
-      <c r="DO2" s="2"/>
-      <c r="DP2" s="2"/>
-      <c r="DQ2" s="2"/>
+      <c r="DI2" s="2">
+        <v>0</v>
+      </c>
+      <c r="DJ2" s="2">
+        <v>0</v>
+      </c>
+      <c r="DK2" s="2">
+        <v>0</v>
+      </c>
+      <c r="DL2" s="2">
+        <v>0</v>
+      </c>
+      <c r="DM2" s="2">
+        <v>0</v>
+      </c>
+      <c r="DN2" s="2">
+        <v>1</v>
+      </c>
+      <c r="DO2" s="2">
+        <v>1</v>
+      </c>
+      <c r="DP2" s="2">
+        <v>1</v>
+      </c>
+      <c r="DQ2" s="2">
+        <v>0.73344421386718694</v>
+      </c>
       <c r="DR2" s="2"/>
       <c r="DS2" s="2"/>
       <c r="DT2" s="2"/>
@@ -1425,9 +1676,37 @@
       <c r="FL2" s="2"/>
       <c r="FM2" s="2"/>
       <c r="FN2" s="2"/>
+      <c r="FO2" s="2"/>
+      <c r="FP2" s="2"/>
+      <c r="FQ2" s="2"/>
+      <c r="FR2" s="2"/>
+      <c r="FS2" s="2"/>
+      <c r="FT2" s="2"/>
+      <c r="FU2" s="2"/>
+      <c r="FV2" s="2"/>
+      <c r="FW2" s="2"/>
+      <c r="FX2" s="2"/>
+      <c r="FY2" s="2"/>
+      <c r="FZ2" s="2"/>
+      <c r="GA2" s="2"/>
+      <c r="GB2" s="2"/>
+      <c r="GC2" s="2"/>
+      <c r="GD2" s="2"/>
+      <c r="GE2" s="2"/>
+      <c r="GF2" s="2"/>
+      <c r="GG2" s="2"/>
+      <c r="GH2" s="2"/>
+      <c r="GI2" s="2"/>
+      <c r="GJ2" s="2"/>
+      <c r="GK2" s="2"/>
+      <c r="GL2" s="2"/>
+      <c r="GM2" s="2"/>
+      <c r="GN2" s="2"/>
+      <c r="GO2" s="2"/>
+      <c r="GP2" s="2"/>
     </row>
-    <row r="3" spans="1:170" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:198" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="2">
@@ -1464,239 +1743,335 @@
         <v>0.98506617357353499</v>
       </c>
       <c r="M3" s="2">
+        <v>37.410953999999997</v>
+      </c>
+      <c r="N3" s="2">
+        <v>73.439586000000006</v>
+      </c>
+      <c r="O3" s="2">
+        <v>36.931848000000002</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.93646200000000002</v>
+      </c>
+      <c r="Q3" s="2">
         <v>76.873218411424503</v>
       </c>
-      <c r="N3" s="2">
+      <c r="R3" s="2">
         <v>1522813.3671875</v>
       </c>
-      <c r="O3" s="2">
+      <c r="S3" s="2">
         <v>19.281594615495599</v>
       </c>
-      <c r="P3" s="2">
+      <c r="T3" s="2">
         <v>209181.9140625</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="U3" s="2">
         <v>7.1442985902840004</v>
       </c>
-      <c r="R3" s="2">
+      <c r="V3" s="2">
         <v>124163.3828125</v>
       </c>
-      <c r="S3" s="2">
+      <c r="W3" s="2">
         <v>5.5056166116647498</v>
       </c>
-      <c r="T3" s="2">
+      <c r="X3" s="2">
         <v>0.64134144065305598</v>
       </c>
-      <c r="U3" s="2">
+      <c r="Y3" s="2">
         <v>0.637374379443295</v>
       </c>
-      <c r="V3" s="2">
+      <c r="Z3" s="2">
         <v>0.75990973876736301</v>
       </c>
-      <c r="W3" s="2">
+      <c r="AA3" s="2">
         <v>1.5752025599149899</v>
       </c>
-      <c r="X3" s="2">
+      <c r="AB3" s="2">
+        <v>23.357620000000001</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>72.562754999999996</v>
+      </c>
+      <c r="AD3" s="2">
+        <v>25.978802999999999</v>
+      </c>
+      <c r="AE3" s="2">
+        <v>0.93646200000000002</v>
+      </c>
+      <c r="AF3" s="2">
         <v>70.677097649196199</v>
       </c>
-      <c r="Y3" s="2">
+      <c r="AG3" s="2">
         <v>786407.91064453102</v>
       </c>
-      <c r="Z3" s="2">
+      <c r="AH3" s="2">
         <v>27.712328519648</v>
       </c>
-      <c r="AA3" s="2">
+      <c r="AI3" s="2">
         <v>102496.871582031</v>
       </c>
-      <c r="AB3" s="2">
+      <c r="AJ3" s="2">
         <v>9.9972874834984804</v>
       </c>
-      <c r="AC3" s="2">
+      <c r="AK3" s="2">
         <v>47276.544433593699</v>
       </c>
-      <c r="AD3" s="2">
+      <c r="AL3" s="2">
         <v>6.79469862759235</v>
       </c>
-      <c r="AE3" s="2">
+      <c r="AM3" s="2">
         <v>0.788440363062342</v>
       </c>
-      <c r="AF3" s="2">
+      <c r="AN3" s="2">
         <v>0.83655391938359802</v>
       </c>
-      <c r="AG3" s="2">
+      <c r="AO3" s="2">
         <v>0.93262765733493502</v>
       </c>
-      <c r="AH3" s="2">
+      <c r="AP3" s="2">
         <v>1.95552215735018</v>
       </c>
-      <c r="AI3" s="2">
+      <c r="AQ3" s="2">
+        <v>11.171424</v>
+      </c>
+      <c r="AR3" s="2">
+        <v>47.392822000000002</v>
+      </c>
+      <c r="AS3" s="2">
+        <v>17.747827999999998</v>
+      </c>
+      <c r="AT3" s="2">
+        <v>0.93646200000000002</v>
+      </c>
+      <c r="AU3" s="2">
         <v>57.222608776249899</v>
       </c>
-      <c r="AJ3" s="2">
+      <c r="AV3" s="2">
         <v>376602.366333007</v>
       </c>
-      <c r="AK3" s="2">
+      <c r="AW3" s="2">
         <v>38.337928236827203</v>
       </c>
-      <c r="AL3" s="2">
+      <c r="AX3" s="2">
         <v>36898.434753417903</v>
       </c>
-      <c r="AM3" s="2">
+      <c r="AY3" s="2">
         <v>11.984803852602999</v>
       </c>
-      <c r="AN3" s="2">
+      <c r="AZ3" s="2">
         <v>27030.4442138671</v>
       </c>
-      <c r="AO3" s="2">
+      <c r="BA3" s="2">
         <v>10.2744450802095</v>
       </c>
-      <c r="AP3" s="2">
+      <c r="BB3" s="2">
         <v>0.94801776573449603</v>
       </c>
-      <c r="AQ3" s="2">
+      <c r="BC3" s="2">
         <v>1.13431917368645</v>
       </c>
-      <c r="AR3" s="2">
+      <c r="BD3" s="2">
         <v>1.5511737848760301</v>
       </c>
-      <c r="AS3" s="2">
+      <c r="BE3" s="2">
         <v>2.30452219673248</v>
       </c>
-      <c r="AT3" s="2">
+      <c r="BF3" s="2">
+        <v>5.6722029999999997</v>
+      </c>
+      <c r="BG3" s="2">
+        <v>22.941759000000001</v>
+      </c>
+      <c r="BH3" s="2">
+        <v>12.091055000000001</v>
+      </c>
+      <c r="BI3" s="2">
+        <v>0.93646200000000002</v>
+      </c>
+      <c r="BJ3" s="2">
         <v>33.676873849837797</v>
       </c>
-      <c r="AU3" s="2">
+      <c r="BK3" s="2">
         <v>117785.021320343</v>
       </c>
-      <c r="AV3" s="2">
+      <c r="BL3" s="2">
         <v>42.710648211371101</v>
       </c>
-      <c r="AW3" s="2">
+      <c r="BM3" s="2">
         <v>8036.56980895996</v>
       </c>
-      <c r="AX3" s="2">
+      <c r="BN3" s="2">
         <v>10.9862146951541</v>
       </c>
-      <c r="AY3" s="2">
+      <c r="BO3" s="2">
         <v>11157.296733856199</v>
       </c>
-      <c r="AZ3" s="2">
+      <c r="BP3" s="2">
         <v>13.1226298281133</v>
       </c>
-      <c r="BA3" s="2">
+      <c r="BQ3" s="2">
         <v>1.24393661411571</v>
       </c>
-      <c r="BB3" s="2">
+      <c r="BR3" s="2">
         <v>1.2014322886176201</v>
       </c>
-      <c r="BC3" s="2">
+      <c r="BS3" s="2">
         <v>2.00405229306716</v>
       </c>
-      <c r="BD3" s="2">
+      <c r="BT3" s="2">
         <v>2.11077332958414</v>
       </c>
-      <c r="BE3" s="2">
+      <c r="BU3" s="2">
+        <v>4.5875089999999998</v>
+      </c>
+      <c r="BV3" s="2">
+        <v>14.200407</v>
+      </c>
+      <c r="BW3" s="2">
+        <v>11.181243</v>
+      </c>
+      <c r="BX3" s="2">
+        <v>0.93646200000000002</v>
+      </c>
+      <c r="BY3" s="2">
         <v>24.889432551893901</v>
       </c>
-      <c r="BF3" s="2">
+      <c r="BZ3" s="2">
         <v>5008.97409272193</v>
       </c>
-      <c r="BG3" s="2">
+      <c r="CA3" s="2">
         <v>17.5168922282114</v>
       </c>
-      <c r="BH3" s="2">
+      <c r="CB3" s="2">
         <v>951.96428394317604</v>
       </c>
-      <c r="BI3" s="2">
+      <c r="CC3" s="2">
         <v>7.4820680038601504</v>
       </c>
-      <c r="BJ3" s="2">
+      <c r="CD3" s="2">
         <v>2273.4292960166899</v>
       </c>
-      <c r="BK3" s="2">
+      <c r="CE3" s="2">
         <v>11.9182249732155</v>
       </c>
-      <c r="BL3" s="2">
+      <c r="CF3" s="2">
         <v>1.7806938710187701</v>
       </c>
-      <c r="BM3" s="2">
+      <c r="CG3" s="2">
         <v>1.77222653279467</v>
       </c>
-      <c r="BN3" s="2">
+      <c r="CH3" s="2">
         <v>1.84171712423296</v>
       </c>
-      <c r="BO3" s="2">
+      <c r="CI3" s="2">
         <v>1.7454827234938699</v>
       </c>
-      <c r="BP3" s="2">
+      <c r="CJ3" s="2">
+        <v>4.7817160000000003</v>
+      </c>
+      <c r="CK3" s="2">
+        <v>4.5395839999999996</v>
+      </c>
+      <c r="CL3" s="2">
+        <v>5.9677439999999997</v>
+      </c>
+      <c r="CM3" s="2">
+        <v>0.93646200000000002</v>
+      </c>
+      <c r="CN3" s="2">
         <v>15.8431886608449</v>
       </c>
-      <c r="BQ3" s="2">
+      <c r="CO3" s="2">
         <v>496.80850816518</v>
       </c>
-      <c r="BR3" s="2">
+      <c r="CP3" s="2">
         <v>10.454294435894701</v>
       </c>
-      <c r="BS3" s="2">
+      <c r="CQ3" s="2">
         <v>499.28744209557698</v>
       </c>
-      <c r="BT3" s="2">
+      <c r="CR3" s="2">
         <v>8.6107439496006108</v>
       </c>
-      <c r="BU3" s="2">
+      <c r="CS3" s="2">
         <v>477.81295298784897</v>
       </c>
-      <c r="BV3" s="2">
+      <c r="CT3" s="2">
         <v>8.2414258549630901</v>
       </c>
-      <c r="BW3" s="2">
+      <c r="CU3" s="2">
         <v>-1.9559754909020799</v>
       </c>
-      <c r="BX3" s="2">
+      <c r="CV3" s="2">
         <v>-5.2270734617106598</v>
       </c>
-      <c r="BY3" s="2">
+      <c r="CW3" s="2">
         <v>-6.8390318988008598</v>
       </c>
-      <c r="BZ3" s="2">
+      <c r="CX3" s="2">
         <v>-7.4787845232603303</v>
       </c>
-      <c r="CA3" s="2">
-        <v>0</v>
-      </c>
-      <c r="CB3" s="2">
+      <c r="CY3" s="2">
+        <v>3.630007</v>
+      </c>
+      <c r="CZ3" s="2">
+        <v>3.5149240000000002</v>
+      </c>
+      <c r="DA3" s="2">
+        <v>3.5491229999999998</v>
+      </c>
+      <c r="DB3" s="2">
+        <v>0.93646200000000002</v>
+      </c>
+      <c r="DC3" s="2">
+        <v>0</v>
+      </c>
+      <c r="DD3" s="2">
         <v>115.993978054262</v>
       </c>
-      <c r="CC3" s="2">
-        <v>0</v>
-      </c>
-      <c r="CD3" s="2">
+      <c r="DE3" s="2">
+        <v>0</v>
+      </c>
+      <c r="DF3" s="2">
         <v>79.890362196601899</v>
       </c>
-      <c r="CE3" s="2">
-        <v>0</v>
-      </c>
-      <c r="CF3" s="2">
+      <c r="DG3" s="2">
+        <v>0</v>
+      </c>
+      <c r="DH3" s="2">
         <v>55.122286692261603</v>
       </c>
-      <c r="CG3" s="2">
-        <v>0</v>
-      </c>
-      <c r="CH3" s="2">
-        <v>0</v>
-      </c>
-      <c r="CI3" s="2">
-        <v>0</v>
-      </c>
-      <c r="CJ3" s="2">
-        <v>0</v>
-      </c>
-      <c r="CK3" s="2">
-        <v>0</v>
+      <c r="DI3" s="2">
+        <v>0</v>
+      </c>
+      <c r="DJ3" s="2">
+        <v>0</v>
+      </c>
+      <c r="DK3" s="2">
+        <v>0</v>
+      </c>
+      <c r="DL3" s="2">
+        <v>0</v>
+      </c>
+      <c r="DM3" s="2">
+        <v>0</v>
+      </c>
+      <c r="DN3" s="2">
+        <v>1</v>
+      </c>
+      <c r="DO3" s="2">
+        <v>1</v>
+      </c>
+      <c r="DP3" s="2">
+        <v>1</v>
+      </c>
+      <c r="DQ3" s="2">
+        <v>0.93646200000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:170" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:198" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>1</v>
       </c>
       <c r="B4" s="2">
@@ -1733,239 +2108,335 @@
         <v>0.87597932483366303</v>
       </c>
       <c r="M4" s="2">
+        <v>24.562774999999998</v>
+      </c>
+      <c r="N4" s="2">
+        <v>50.876986000000002</v>
+      </c>
+      <c r="O4" s="2">
+        <v>30.420003999999999</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.92909200000000003</v>
+      </c>
+      <c r="Q4" s="2">
         <v>80.780274686282795</v>
       </c>
-      <c r="N4" s="2">
+      <c r="R4" s="2">
         <v>3214980.82421875</v>
       </c>
-      <c r="O4" s="2">
+      <c r="S4" s="2">
         <v>28.0161160204186</v>
       </c>
-      <c r="P4" s="2">
+      <c r="T4" s="2">
         <v>369282.07421875</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="U4" s="2">
         <v>9.4949534964087796</v>
       </c>
-      <c r="R4" s="2">
+      <c r="V4" s="2">
         <v>221215.08984375</v>
       </c>
-      <c r="S4" s="2">
+      <c r="W4" s="2">
         <v>7.3489019377433102</v>
       </c>
-      <c r="T4" s="2">
+      <c r="X4" s="2">
         <v>0.62614551557653797</v>
       </c>
-      <c r="U4" s="2">
+      <c r="Y4" s="2">
         <v>0.68992684802766202</v>
       </c>
-      <c r="V4" s="2">
+      <c r="Z4" s="2">
         <v>0.97856504900057795</v>
       </c>
-      <c r="W4" s="2">
+      <c r="AA4" s="2">
         <v>1.35476766423103</v>
       </c>
-      <c r="X4" s="2">
+      <c r="AB4" s="2">
+        <v>12.25145</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>45.520758000000001</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>27.713190999999998</v>
+      </c>
+      <c r="AE4" s="2">
+        <v>0.92909200000000003</v>
+      </c>
+      <c r="AF4" s="2">
         <v>68.085099683530501</v>
       </c>
-      <c r="Y4" s="2">
+      <c r="AG4" s="2">
         <v>1699402.30004882</v>
       </c>
-      <c r="Z4" s="2">
+      <c r="AH4" s="2">
         <v>40.737851556275103</v>
       </c>
-      <c r="AA4" s="2">
+      <c r="AI4" s="2">
         <v>142246.21118164001</v>
       </c>
-      <c r="AB4" s="2">
+      <c r="AJ4" s="2">
         <v>11.785885435199701</v>
       </c>
-      <c r="AC4" s="2">
+      <c r="AK4" s="2">
         <v>93580.395751953096</v>
       </c>
-      <c r="AD4" s="2">
+      <c r="AL4" s="2">
         <v>9.5595386290928701</v>
       </c>
-      <c r="AE4" s="2">
+      <c r="AM4" s="2">
         <v>0.851337227000312</v>
       </c>
-      <c r="AF4" s="2">
+      <c r="AN4" s="2">
         <v>0.97231447574046603</v>
       </c>
-      <c r="AG4" s="2">
+      <c r="AO4" s="2">
         <v>1.1705343571244999</v>
       </c>
-      <c r="AH4" s="2">
+      <c r="AP4" s="2">
         <v>1.76129087760286</v>
       </c>
-      <c r="AI4" s="2">
+      <c r="AQ4" s="2">
+        <v>5.1504709999999996</v>
+      </c>
+      <c r="AR4" s="2">
+        <v>26.869081000000001</v>
+      </c>
+      <c r="AS4" s="2">
+        <v>14.841379999999999</v>
+      </c>
+      <c r="AT4" s="2">
+        <v>0.92909200000000003</v>
+      </c>
+      <c r="AU4" s="2">
         <v>38.721381597452499</v>
       </c>
-      <c r="AJ4" s="2">
+      <c r="AV4" s="2">
         <v>704567.18806457496</v>
       </c>
-      <c r="AK4" s="2">
+      <c r="AW4" s="2">
         <v>52.442861024133002</v>
       </c>
-      <c r="AL4" s="2">
+      <c r="AX4" s="2">
         <v>29806.818496704102</v>
       </c>
-      <c r="AM4" s="2">
+      <c r="AY4" s="2">
         <v>10.790405353177301</v>
       </c>
-      <c r="AN4" s="2">
+      <c r="AZ4" s="2">
         <v>68502.257400512695</v>
       </c>
-      <c r="AO4" s="2">
+      <c r="BA4" s="2">
         <v>16.355098841291898</v>
       </c>
-      <c r="AP4" s="2">
+      <c r="BB4" s="2">
         <v>1.1940815233463</v>
       </c>
-      <c r="AQ4" s="2">
+      <c r="BC4" s="2">
         <v>1.2037856925739301</v>
       </c>
-      <c r="AR4" s="2">
+      <c r="BD4" s="2">
         <v>2.0120665167103402</v>
       </c>
-      <c r="AS4" s="2">
+      <c r="BE4" s="2">
         <v>1.65804377611809</v>
       </c>
-      <c r="AT4" s="2">
+      <c r="BF4" s="2">
+        <v>2.8947430000000001</v>
+      </c>
+      <c r="BG4" s="2">
+        <v>15.541759000000001</v>
+      </c>
+      <c r="BH4" s="2">
+        <v>12.866275</v>
+      </c>
+      <c r="BI4" s="2">
+        <v>0.92909200000000003</v>
+      </c>
+      <c r="BJ4" s="2">
         <v>16.8617258079062</v>
       </c>
-      <c r="AU4" s="2">
+      <c r="BK4" s="2">
         <v>59130.900774955699</v>
       </c>
-      <c r="AV4" s="2">
+      <c r="BL4" s="2">
         <v>29.582417619844701</v>
       </c>
-      <c r="AW4" s="2">
+      <c r="BM4" s="2">
         <v>4332.6170988082804</v>
       </c>
-      <c r="AX4" s="2">
+      <c r="BN4" s="2">
         <v>8.2140169211523801</v>
       </c>
-      <c r="AY4" s="2">
+      <c r="BO4" s="2">
         <v>14298.2482442855</v>
       </c>
-      <c r="AZ4" s="2">
+      <c r="BP4" s="2">
         <v>14.868765660965201</v>
       </c>
-      <c r="BA4" s="2">
+      <c r="BQ4" s="2">
         <v>2.27732044397453</v>
       </c>
-      <c r="BB4" s="2">
+      <c r="BR4" s="2">
         <v>1.6938299374622201</v>
       </c>
-      <c r="BC4" s="2">
+      <c r="BS4" s="2">
         <v>3.2440824212914601</v>
       </c>
-      <c r="BD4" s="2">
+      <c r="BT4" s="2">
         <v>2.4358047013489399</v>
       </c>
-      <c r="BE4" s="2">
+      <c r="BU4" s="2">
+        <v>4.2785289999999998</v>
+      </c>
+      <c r="BV4" s="2">
+        <v>9.0778730000000003</v>
+      </c>
+      <c r="BW4" s="2">
+        <v>6.8009490000000001</v>
+      </c>
+      <c r="BX4" s="2">
+        <v>0.92909200000000003</v>
+      </c>
+      <c r="BY4" s="2">
         <v>9.7085657885037993</v>
       </c>
-      <c r="BF4" s="2">
+      <c r="BZ4" s="2">
         <v>1407.9108585715201</v>
       </c>
-      <c r="BG4" s="2">
+      <c r="CA4" s="2">
         <v>9.3544215038151695</v>
       </c>
-      <c r="BH4" s="2">
+      <c r="CB4" s="2">
         <v>1122.56856411695</v>
       </c>
-      <c r="BI4" s="2">
+      <c r="CC4" s="2">
         <v>8.3538557837888199</v>
       </c>
-      <c r="BJ4" s="2">
+      <c r="CD4" s="2">
         <v>510.50533813238098</v>
       </c>
-      <c r="BK4" s="2">
+      <c r="CE4" s="2">
         <v>5.4727037849232101</v>
       </c>
-      <c r="BL4" s="2">
+      <c r="CF4" s="2">
         <v>1.56440374688177</v>
       </c>
-      <c r="BM4" s="2">
+      <c r="CG4" s="2">
         <v>2.0732185018659899</v>
       </c>
-      <c r="BN4" s="2">
+      <c r="CH4" s="2">
         <v>1.5529428541259001</v>
       </c>
-      <c r="BO4" s="2">
+      <c r="CI4" s="2">
         <v>1.5141239288185999</v>
       </c>
-      <c r="BP4" s="2">
+      <c r="CJ4" s="2">
+        <v>5.5410750000000002</v>
+      </c>
+      <c r="CK4" s="2">
+        <v>4.9424270000000003</v>
+      </c>
+      <c r="CL4" s="2">
+        <v>7.235976</v>
+      </c>
+      <c r="CM4" s="2">
+        <v>0.92909200000000003</v>
+      </c>
+      <c r="CN4" s="2">
         <v>3.7325289358514699</v>
       </c>
-      <c r="BQ4" s="2">
+      <c r="CO4" s="2">
         <v>162.814245130866</v>
       </c>
-      <c r="BR4" s="2">
+      <c r="CP4" s="2">
         <v>5.8729009423640601</v>
       </c>
-      <c r="BS4" s="2">
+      <c r="CQ4" s="2">
         <v>91.994471650570603</v>
       </c>
-      <c r="BT4" s="2">
+      <c r="CR4" s="2">
         <v>4.5284690107288696</v>
       </c>
-      <c r="BU4" s="2">
+      <c r="CS4" s="2">
         <v>66.489192869514198</v>
       </c>
-      <c r="BV4" s="2">
+      <c r="CT4" s="2">
         <v>3.9797462956501599</v>
       </c>
-      <c r="BW4" s="2">
+      <c r="CU4" s="2">
         <v>-29.177064859707301</v>
       </c>
-      <c r="BX4" s="2">
+      <c r="CV4" s="2">
         <v>-18.321055935443699</v>
       </c>
-      <c r="BY4" s="2">
+      <c r="CW4" s="2">
         <v>-23.0213266115707</v>
       </c>
-      <c r="BZ4" s="2">
+      <c r="CX4" s="2">
         <v>-28.142787772274001</v>
       </c>
-      <c r="CA4" s="2">
-        <v>0</v>
-      </c>
-      <c r="CB4" s="2">
+      <c r="CY4" s="2">
+        <v>2.1412450000000001</v>
+      </c>
+      <c r="CZ4" s="2">
+        <v>1.941174</v>
+      </c>
+      <c r="DA4" s="2">
+        <v>1.6951879999999999</v>
+      </c>
+      <c r="DB4" s="2">
+        <v>0.92909200000000003</v>
+      </c>
+      <c r="DC4" s="2">
+        <v>0</v>
+      </c>
+      <c r="DD4" s="2">
         <v>0.81304056779481404</v>
       </c>
-      <c r="CC4" s="2">
-        <v>0</v>
-      </c>
-      <c r="CD4" s="2">
+      <c r="DE4" s="2">
+        <v>0</v>
+      </c>
+      <c r="DF4" s="2">
         <v>4.2396302989218304</v>
       </c>
-      <c r="CE4" s="2">
-        <v>0</v>
-      </c>
-      <c r="CF4" s="2">
+      <c r="DG4" s="2">
+        <v>0</v>
+      </c>
+      <c r="DH4" s="2">
         <v>8.8791013902518898</v>
       </c>
-      <c r="CG4" s="2">
-        <v>0</v>
-      </c>
-      <c r="CH4" s="2">
-        <v>0</v>
-      </c>
-      <c r="CI4" s="2">
-        <v>0</v>
-      </c>
-      <c r="CJ4" s="2">
-        <v>0</v>
-      </c>
-      <c r="CK4" s="2">
-        <v>0</v>
+      <c r="DI4" s="2">
+        <v>0</v>
+      </c>
+      <c r="DJ4" s="2">
+        <v>0</v>
+      </c>
+      <c r="DK4" s="2">
+        <v>0</v>
+      </c>
+      <c r="DL4" s="2">
+        <v>0</v>
+      </c>
+      <c r="DM4" s="2">
+        <v>0</v>
+      </c>
+      <c r="DN4" s="2">
+        <v>1</v>
+      </c>
+      <c r="DO4" s="2">
+        <v>1</v>
+      </c>
+      <c r="DP4" s="2">
+        <v>1</v>
+      </c>
+      <c r="DQ4" s="2">
+        <v>0.92909200000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:170" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5" spans="1:198" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>1</v>
       </c>
       <c r="B5" s="2">
@@ -2002,239 +2473,335 @@
         <v>0.76722837204302197</v>
       </c>
       <c r="M5" s="2">
+        <v>43.121558</v>
+      </c>
+      <c r="N5" s="2">
+        <v>82.001363999999995</v>
+      </c>
+      <c r="O5" s="2">
+        <v>64.387300999999994</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.96635400000000005</v>
+      </c>
+      <c r="Q5" s="2">
         <v>91.113916016765202</v>
       </c>
-      <c r="N5" s="2">
+      <c r="R5" s="2">
         <v>2042332.89453125</v>
       </c>
-      <c r="O5" s="2">
+      <c r="S5" s="2">
         <v>22.329680499614799</v>
       </c>
-      <c r="P5" s="2">
+      <c r="T5" s="2">
         <v>730560.44140625</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="U5" s="2">
         <v>13.3547176788286</v>
       </c>
-      <c r="R5" s="2">
+      <c r="V5" s="2">
         <v>176824.34765625</v>
       </c>
-      <c r="S5" s="2">
+      <c r="W5" s="2">
         <v>6.5702184661429399</v>
       </c>
-      <c r="T5" s="2">
+      <c r="X5" s="2">
         <v>0.61033656768685995</v>
       </c>
-      <c r="U5" s="2">
+      <c r="Y5" s="2">
         <v>0.61500330300329298</v>
       </c>
-      <c r="V5" s="2">
+      <c r="Z5" s="2">
         <v>0.72394812506040696</v>
       </c>
-      <c r="W5" s="2">
+      <c r="AA5" s="2">
         <v>1.36399207166839</v>
       </c>
-      <c r="X5" s="2">
+      <c r="AB5" s="2">
+        <v>20.408003000000001</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>30.650200000000002</v>
+      </c>
+      <c r="AD5" s="2">
+        <v>31.819057000000001</v>
+      </c>
+      <c r="AE5" s="2">
+        <v>0.96635400000000005</v>
+      </c>
+      <c r="AF5" s="2">
         <v>81.719218839626507</v>
       </c>
-      <c r="Y5" s="2">
+      <c r="AG5" s="2">
         <v>1150335.35620117</v>
       </c>
-      <c r="Z5" s="2">
+      <c r="AH5" s="2">
         <v>33.514745117379597</v>
       </c>
-      <c r="AA5" s="2">
+      <c r="AI5" s="2">
         <v>379334.49194335903</v>
       </c>
-      <c r="AB5" s="2">
+      <c r="AJ5" s="2">
         <v>19.246791401986101</v>
       </c>
-      <c r="AC5" s="2">
+      <c r="AK5" s="2">
         <v>133014.275146484</v>
       </c>
-      <c r="AD5" s="2">
+      <c r="AL5" s="2">
         <v>11.3970766994632</v>
       </c>
-      <c r="AE5" s="2">
+      <c r="AM5" s="2">
         <v>0.75676477335565095</v>
       </c>
-      <c r="AF5" s="2">
+      <c r="AN5" s="2">
         <v>0.81969852908068896</v>
       </c>
-      <c r="AG5" s="2">
+      <c r="AO5" s="2">
         <v>0.90909309070251598</v>
       </c>
-      <c r="AH5" s="2">
+      <c r="AP5" s="2">
         <v>1.2819179769232201</v>
       </c>
-      <c r="AI5" s="2">
+      <c r="AQ5" s="2">
+        <v>8.6202699999999997</v>
+      </c>
+      <c r="AR5" s="2">
+        <v>16.927424999999999</v>
+      </c>
+      <c r="AS5" s="2">
+        <v>30.676407000000001</v>
+      </c>
+      <c r="AT5" s="2">
+        <v>0.96635400000000005</v>
+      </c>
+      <c r="AU5" s="2">
         <v>60.466390571223997</v>
       </c>
-      <c r="AJ5" s="2">
+      <c r="AV5" s="2">
         <v>534810.06858825602</v>
       </c>
-      <c r="AK5" s="2">
+      <c r="AW5" s="2">
         <v>45.693383132406503</v>
       </c>
-      <c r="AL5" s="2">
+      <c r="AX5" s="2">
         <v>153642.427841186</v>
       </c>
-      <c r="AM5" s="2">
+      <c r="AY5" s="2">
         <v>24.4731469021783</v>
       </c>
-      <c r="AN5" s="2">
+      <c r="AZ5" s="2">
         <v>85140.166366577105</v>
       </c>
-      <c r="AO5" s="2">
+      <c r="BA5" s="2">
         <v>18.219052605508001</v>
       </c>
-      <c r="AP5" s="2">
+      <c r="BB5" s="2">
         <v>0.946361714874696</v>
       </c>
-      <c r="AQ5" s="2">
+      <c r="BC5" s="2">
         <v>1.0274110707747699</v>
       </c>
-      <c r="AR5" s="2">
+      <c r="BD5" s="2">
         <v>1.19204179386678</v>
       </c>
-      <c r="AS5" s="2">
+      <c r="BE5" s="2">
         <v>1.44159016870262</v>
       </c>
-      <c r="AT5" s="2">
+      <c r="BF5" s="2">
+        <v>5.066325</v>
+      </c>
+      <c r="BG5" s="2">
+        <v>11.240963000000001</v>
+      </c>
+      <c r="BH5" s="2">
+        <v>12.30686</v>
+      </c>
+      <c r="BI5" s="2">
+        <v>0.96635400000000005</v>
+      </c>
+      <c r="BJ5" s="2">
         <v>29.645817385305801</v>
       </c>
-      <c r="AU5" s="2">
+      <c r="BK5" s="2">
         <v>102895.96968173901</v>
       </c>
-      <c r="AV5" s="2">
+      <c r="BL5" s="2">
         <v>39.176241524190203</v>
       </c>
-      <c r="AW5" s="2">
+      <c r="BM5" s="2">
         <v>41781.987019538799</v>
       </c>
-      <c r="AX5" s="2">
+      <c r="BN5" s="2">
         <v>25.550798149277998</v>
       </c>
-      <c r="AY5" s="2">
+      <c r="BO5" s="2">
         <v>33069.876915931702</v>
       </c>
-      <c r="AZ5" s="2">
+      <c r="BP5" s="2">
         <v>22.7211576817317</v>
       </c>
-      <c r="BA5" s="2">
+      <c r="BQ5" s="2">
         <v>1.4115344997046</v>
       </c>
-      <c r="BB5" s="2">
+      <c r="BR5" s="2">
         <v>1.3455325811485199</v>
       </c>
-      <c r="BC5" s="2">
+      <c r="BS5" s="2">
         <v>1.20731343629246</v>
       </c>
-      <c r="BD5" s="2">
+      <c r="BT5" s="2">
         <v>1.7340536773258699</v>
       </c>
-      <c r="BE5" s="2">
+      <c r="BU5" s="2">
+        <v>5.1830090000000002</v>
+      </c>
+      <c r="BV5" s="2">
+        <v>11.90939</v>
+      </c>
+      <c r="BW5" s="2">
+        <v>5.7966189999999997</v>
+      </c>
+      <c r="BX5" s="2">
+        <v>0.96635400000000005</v>
+      </c>
+      <c r="BY5" s="2">
         <v>10.2736802193825</v>
       </c>
-      <c r="BF5" s="2">
+      <c r="BZ5" s="2">
         <v>3181.2532895207401</v>
       </c>
-      <c r="BG5" s="2">
+      <c r="CA5" s="2">
         <v>13.759521370316101</v>
       </c>
-      <c r="BH5" s="2">
+      <c r="CB5" s="2">
         <v>2393.8407626747999</v>
       </c>
-      <c r="BI5" s="2">
+      <c r="CC5" s="2">
         <v>12.038268976194299</v>
       </c>
-      <c r="BJ5" s="2">
+      <c r="CD5" s="2">
         <v>6798.1216788887896</v>
       </c>
-      <c r="BK5" s="2">
+      <c r="CE5" s="2">
         <v>20.2309410592819</v>
       </c>
-      <c r="BL5" s="2">
+      <c r="CF5" s="2">
         <v>1.6632992379598901</v>
       </c>
-      <c r="BM5" s="2">
+      <c r="CG5" s="2">
         <v>2.01924710911601</v>
       </c>
-      <c r="BN5" s="2">
+      <c r="CH5" s="2">
         <v>1.68838386087347</v>
       </c>
-      <c r="BO5" s="2">
+      <c r="CI5" s="2">
         <v>1.87603706633236</v>
       </c>
-      <c r="BP5" s="2">
+      <c r="CJ5" s="2">
+        <v>5.925389</v>
+      </c>
+      <c r="CK5" s="2">
+        <v>12.656402999999999</v>
+      </c>
+      <c r="CL5" s="2">
+        <v>6.8589149999999997</v>
+      </c>
+      <c r="CM5" s="2">
+        <v>0.96635400000000005</v>
+      </c>
+      <c r="CN5" s="2">
         <v>3.7756339319846699</v>
       </c>
-      <c r="BQ5" s="2">
+      <c r="CO5" s="2">
         <v>234.324671778827</v>
       </c>
-      <c r="BR5" s="2">
+      <c r="CP5" s="2">
         <v>6.0372299872745101</v>
       </c>
-      <c r="BS5" s="2">
+      <c r="CQ5" s="2">
         <v>85.477634299546395</v>
       </c>
-      <c r="BT5" s="2">
+      <c r="CR5" s="2">
         <v>4.08537265905432</v>
       </c>
-      <c r="BU5" s="2">
+      <c r="CS5" s="2">
         <v>45.370068568736301</v>
       </c>
-      <c r="BV5" s="2">
+      <c r="CT5" s="2">
         <v>3.2704141865901102</v>
       </c>
-      <c r="BW5" s="2">
+      <c r="CU5" s="2">
         <v>-31.307412890548999</v>
       </c>
-      <c r="BX5" s="2">
+      <c r="CV5" s="2">
         <v>-14.335650176488</v>
       </c>
-      <c r="BY5" s="2">
+      <c r="CW5" s="2">
         <v>-25.296198971690501</v>
       </c>
-      <c r="BZ5" s="2">
+      <c r="CX5" s="2">
         <v>-40.949020409958301</v>
       </c>
-      <c r="CA5" s="2">
-        <v>0</v>
-      </c>
-      <c r="CB5" s="2">
+      <c r="CY5" s="2">
+        <v>2.83832</v>
+      </c>
+      <c r="CZ5" s="2">
+        <v>2.0516299999999998</v>
+      </c>
+      <c r="DA5" s="2">
+        <v>2.0525720000000001</v>
+      </c>
+      <c r="DB5" s="2">
+        <v>0.96635400000000005</v>
+      </c>
+      <c r="DC5" s="2">
+        <v>0</v>
+      </c>
+      <c r="DD5" s="2">
         <v>3.8647494672331901</v>
       </c>
-      <c r="CC5" s="2">
-        <v>0</v>
-      </c>
-      <c r="CD5" s="2">
+      <c r="DE5" s="2">
+        <v>0</v>
+      </c>
+      <c r="DF5" s="2">
         <v>2.2868162544909798</v>
       </c>
-      <c r="CE5" s="2">
-        <v>0</v>
-      </c>
-      <c r="CF5" s="2">
+      <c r="DG5" s="2">
+        <v>0</v>
+      </c>
+      <c r="DH5" s="2">
         <v>8.1038458666298503</v>
       </c>
-      <c r="CG5" s="2">
-        <v>0</v>
-      </c>
-      <c r="CH5" s="2">
-        <v>0</v>
-      </c>
-      <c r="CI5" s="2">
-        <v>0</v>
-      </c>
-      <c r="CJ5" s="2">
-        <v>0</v>
-      </c>
-      <c r="CK5" s="2">
-        <v>0</v>
+      <c r="DI5" s="2">
+        <v>0</v>
+      </c>
+      <c r="DJ5" s="2">
+        <v>0</v>
+      </c>
+      <c r="DK5" s="2">
+        <v>0</v>
+      </c>
+      <c r="DL5" s="2">
+        <v>0</v>
+      </c>
+      <c r="DM5" s="2">
+        <v>0</v>
+      </c>
+      <c r="DN5" s="2">
+        <v>1</v>
+      </c>
+      <c r="DO5" s="2">
+        <v>1</v>
+      </c>
+      <c r="DP5" s="2">
+        <v>1</v>
+      </c>
+      <c r="DQ5" s="2">
+        <v>0.96635400000000005</v>
       </c>
     </row>
-    <row r="6" spans="1:170" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" spans="1:198" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>1</v>
       </c>
       <c r="B6" s="2">
@@ -2271,239 +2838,335 @@
         <v>0.420480217909174</v>
       </c>
       <c r="M6" s="2">
+        <v>31.916035000000001</v>
+      </c>
+      <c r="N6" s="2">
+        <v>76.909683999999999</v>
+      </c>
+      <c r="O6" s="2">
+        <v>41.634490999999997</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.70825199999999999</v>
+      </c>
+      <c r="Q6" s="2">
         <v>101.403717498788</v>
       </c>
-      <c r="N6" s="2">
+      <c r="R6" s="2">
         <v>3253157.453125</v>
       </c>
-      <c r="O6" s="2">
+      <c r="S6" s="2">
         <v>28.1799715643408</v>
       </c>
-      <c r="P6" s="2">
+      <c r="T6" s="2">
         <v>1231119.71875</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="U6" s="2">
         <v>17.332905751799899</v>
       </c>
-      <c r="R6" s="2">
+      <c r="V6" s="2">
         <v>666038.65625</v>
       </c>
-      <c r="S6" s="2">
+      <c r="W6" s="2">
         <v>12.751481652655</v>
       </c>
-      <c r="T6" s="2">
+      <c r="X6" s="2">
         <v>0.41487454472066698</v>
       </c>
-      <c r="U6" s="2">
+      <c r="Y6" s="2">
         <v>0.39552379127627901</v>
       </c>
-      <c r="V6" s="2">
+      <c r="Z6" s="2">
         <v>0.41175955347266002</v>
       </c>
-      <c r="W6" s="2">
+      <c r="AA6" s="2">
         <v>0.74406234906713897</v>
       </c>
-      <c r="X6" s="2">
+      <c r="AB6" s="2">
+        <v>15.217613999999999</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>39.710244000000003</v>
+      </c>
+      <c r="AD6" s="2">
+        <v>12.557325000000001</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>0.70825199999999999</v>
+      </c>
+      <c r="AF6" s="2">
         <v>89.681212547513695</v>
       </c>
-      <c r="Y6" s="2">
+      <c r="AG6" s="2">
         <v>1463869.63183593</v>
       </c>
-      <c r="Z6" s="2">
+      <c r="AH6" s="2">
         <v>37.809041216386099</v>
       </c>
-      <c r="AA6" s="2">
+      <c r="AI6" s="2">
         <v>505260.07519531198</v>
       </c>
-      <c r="AB6" s="2">
+      <c r="AJ6" s="2">
         <v>22.211842836058999</v>
       </c>
-      <c r="AC6" s="2">
+      <c r="AK6" s="2">
         <v>324624.18847656198</v>
       </c>
-      <c r="AD6" s="2">
+      <c r="AL6" s="2">
         <v>17.8007183109153</v>
       </c>
-      <c r="AE6" s="2">
+      <c r="AM6" s="2">
         <v>0.66848021094447196</v>
       </c>
-      <c r="AF6" s="2">
+      <c r="AN6" s="2">
         <v>0.721753470210309</v>
       </c>
-      <c r="AG6" s="2">
+      <c r="AO6" s="2">
         <v>0.81915581581706198</v>
       </c>
-      <c r="AH6" s="2">
+      <c r="AP6" s="2">
         <v>1.1357074830492799</v>
       </c>
-      <c r="AI6" s="2">
+      <c r="AQ6" s="2">
+        <v>7.3336119999999996</v>
+      </c>
+      <c r="AR6" s="2">
+        <v>16.143637999999999</v>
+      </c>
+      <c r="AS6" s="2">
+        <v>11.338164000000001</v>
+      </c>
+      <c r="AT6" s="2">
+        <v>0.70825199999999999</v>
+      </c>
+      <c r="AU6" s="2">
         <v>65.190659068484507</v>
       </c>
-      <c r="AJ6" s="2">
+      <c r="AV6" s="2">
         <v>584601.40353393496</v>
       </c>
-      <c r="AK6" s="2">
+      <c r="AW6" s="2">
         <v>47.786752651209703</v>
       </c>
-      <c r="AL6" s="2">
+      <c r="AX6" s="2">
         <v>206329.229766845</v>
       </c>
-      <c r="AM6" s="2">
+      <c r="AY6" s="2">
         <v>28.388040605772598</v>
       </c>
-      <c r="AN6" s="2">
+      <c r="AZ6" s="2">
         <v>180051.21737670799</v>
       </c>
-      <c r="AO6" s="2">
+      <c r="BA6" s="2">
         <v>26.497303996350698</v>
       </c>
-      <c r="AP6" s="2">
+      <c r="BB6" s="2">
         <v>0.912022609751032</v>
       </c>
-      <c r="AQ6" s="2">
+      <c r="BC6" s="2">
         <v>1.0707400123069699</v>
       </c>
-      <c r="AR6" s="2">
+      <c r="BD6" s="2">
         <v>1.22740459661114</v>
       </c>
-      <c r="AS6" s="2">
+      <c r="BE6" s="2">
         <v>1.37831734828944</v>
       </c>
-      <c r="AT6" s="2">
+      <c r="BF6" s="2">
+        <v>3.923546</v>
+      </c>
+      <c r="BG6" s="2">
+        <v>8.3038030000000003</v>
+      </c>
+      <c r="BH6" s="2">
+        <v>6.3780749999999999</v>
+      </c>
+      <c r="BI6" s="2">
+        <v>0.70825199999999999</v>
+      </c>
+      <c r="BJ6" s="2">
         <v>36.433521309317101</v>
       </c>
-      <c r="AU6" s="2">
+      <c r="BK6" s="2">
         <v>71638.854566574097</v>
       </c>
-      <c r="AV6" s="2">
+      <c r="BL6" s="2">
         <v>33.418595855027498</v>
       </c>
-      <c r="AW6" s="2">
+      <c r="BM6" s="2">
         <v>26889.7632465362</v>
       </c>
-      <c r="AX6" s="2">
+      <c r="BN6" s="2">
         <v>20.477056137830299</v>
       </c>
-      <c r="AY6" s="2">
+      <c r="BO6" s="2">
         <v>88506.297693252505</v>
       </c>
-      <c r="AZ6" s="2">
+      <c r="BP6" s="2">
         <v>37.159943406272802</v>
       </c>
-      <c r="BA6" s="2">
+      <c r="BQ6" s="2">
         <v>1.3612449933898301</v>
       </c>
-      <c r="BB6" s="2">
+      <c r="BR6" s="2">
         <v>1.3935654348665301</v>
       </c>
-      <c r="BC6" s="2">
+      <c r="BS6" s="2">
         <v>1.53074481896321</v>
       </c>
-      <c r="BD6" s="2">
+      <c r="BT6" s="2">
         <v>1.55427748895406</v>
       </c>
-      <c r="BE6" s="2">
+      <c r="BU6" s="2">
+        <v>8.0080550000000006</v>
+      </c>
+      <c r="BV6" s="2">
+        <v>15.783386999999999</v>
+      </c>
+      <c r="BW6" s="2">
+        <v>3.57605</v>
+      </c>
+      <c r="BX6" s="2">
+        <v>0.70825199999999999</v>
+      </c>
+      <c r="BY6" s="2">
         <v>17.877062459706298</v>
       </c>
-      <c r="BF6" s="2">
+      <c r="BZ6" s="2">
         <v>4580.9117991924204</v>
       </c>
-      <c r="BG6" s="2">
+      <c r="CA6" s="2">
         <v>16.5015512260143</v>
       </c>
-      <c r="BH6" s="2">
+      <c r="CB6" s="2">
         <v>2931.4358134269701</v>
       </c>
-      <c r="BI6" s="2">
+      <c r="CC6" s="2">
         <v>13.5355901141834</v>
       </c>
-      <c r="BJ6" s="2">
+      <c r="CD6" s="2">
         <v>8612.6461923122406</v>
       </c>
-      <c r="BK6" s="2">
+      <c r="CE6" s="2">
         <v>22.843860795225901</v>
       </c>
-      <c r="BL6" s="2">
+      <c r="CF6" s="2">
         <v>1.85354191989867</v>
       </c>
-      <c r="BM6" s="2">
+      <c r="CG6" s="2">
         <v>1.8868117284977</v>
       </c>
-      <c r="BN6" s="2">
+      <c r="CH6" s="2">
         <v>2.0361130123272502</v>
       </c>
-      <c r="BO6" s="2">
+      <c r="CI6" s="2">
         <v>1.6443967856455199</v>
       </c>
-      <c r="BP6" s="2">
+      <c r="CJ6" s="2">
+        <v>6.194356</v>
+      </c>
+      <c r="CK6" s="2">
+        <v>6.714156</v>
+      </c>
+      <c r="CL6" s="2">
+        <v>5.4906280000000001</v>
+      </c>
+      <c r="CM6" s="2">
+        <v>0.70825199999999999</v>
+      </c>
+      <c r="CN6" s="2">
         <v>14.587131664972899</v>
       </c>
-      <c r="BQ6" s="2">
+      <c r="CO6" s="2">
         <v>54.059497758746097</v>
       </c>
-      <c r="BR6" s="2">
+      <c r="CP6" s="2">
         <v>3.6734027833070799</v>
       </c>
-      <c r="BS6" s="2">
+      <c r="CQ6" s="2">
         <v>317.06030169129298</v>
       </c>
-      <c r="BT6" s="2">
+      <c r="CR6" s="2">
         <v>7.2109542936375401</v>
       </c>
-      <c r="BU6" s="2">
+      <c r="CS6" s="2">
         <v>56.100008457899001</v>
       </c>
-      <c r="BV6" s="2">
+      <c r="CT6" s="2">
         <v>3.5507371000602301</v>
       </c>
-      <c r="BW6" s="2">
+      <c r="CU6" s="2">
         <v>-2.69816233197654</v>
       </c>
-      <c r="BX6" s="2">
+      <c r="CV6" s="2">
         <v>-32.488972609257999</v>
       </c>
-      <c r="BY6" s="2">
+      <c r="CW6" s="2">
         <v>-11.127696215691</v>
       </c>
-      <c r="BZ6" s="2">
+      <c r="CX6" s="2">
         <v>-31.052412716324099</v>
       </c>
-      <c r="CA6" s="2">
-        <v>0</v>
-      </c>
-      <c r="CB6" s="2">
+      <c r="CY6" s="2">
+        <v>2.1432289999999998</v>
+      </c>
+      <c r="CZ6" s="2">
+        <v>1.6793439999999999</v>
+      </c>
+      <c r="DA6" s="2">
+        <v>3.4533010000000002</v>
+      </c>
+      <c r="DB6" s="2">
+        <v>0.70825199999999999</v>
+      </c>
+      <c r="DC6" s="2">
+        <v>0</v>
+      </c>
+      <c r="DD6" s="2">
         <v>55.607770205475298</v>
       </c>
-      <c r="CC6" s="2">
-        <v>0</v>
-      </c>
-      <c r="CD6" s="2">
+      <c r="DE6" s="2">
+        <v>0</v>
+      </c>
+      <c r="DF6" s="2">
         <v>60.318677731789599</v>
       </c>
-      <c r="CE6" s="2">
-        <v>0</v>
-      </c>
-      <c r="CF6" s="2">
+      <c r="DG6" s="2">
+        <v>0</v>
+      </c>
+      <c r="DH6" s="2">
         <v>96.857962273992598</v>
       </c>
-      <c r="CG6" s="2">
-        <v>0</v>
-      </c>
-      <c r="CH6" s="2">
-        <v>0</v>
-      </c>
-      <c r="CI6" s="2">
-        <v>0</v>
-      </c>
-      <c r="CJ6" s="2">
-        <v>0</v>
-      </c>
-      <c r="CK6" s="2">
-        <v>0</v>
+      <c r="DI6" s="2">
+        <v>0</v>
+      </c>
+      <c r="DJ6" s="2">
+        <v>0</v>
+      </c>
+      <c r="DK6" s="2">
+        <v>0</v>
+      </c>
+      <c r="DL6" s="2">
+        <v>0</v>
+      </c>
+      <c r="DM6" s="2">
+        <v>0</v>
+      </c>
+      <c r="DN6" s="2">
+        <v>1</v>
+      </c>
+      <c r="DO6" s="2">
+        <v>1</v>
+      </c>
+      <c r="DP6" s="2">
+        <v>1</v>
+      </c>
+      <c r="DQ6" s="2">
+        <v>0.70825199999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:170" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7" spans="1:198" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>2</v>
       </c>
       <c r="B7" s="2">
@@ -2540,239 +3203,335 @@
         <v>0.995145785973783</v>
       </c>
       <c r="M7" s="2">
+        <v>63.656914</v>
+      </c>
+      <c r="N7" s="2">
+        <v>34.012327999999997</v>
+      </c>
+      <c r="O7" s="2">
+        <v>51.827533000000003</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0.97843899999999995</v>
+      </c>
+      <c r="Q7" s="2">
         <v>61.387261795636199</v>
       </c>
-      <c r="N7" s="2">
+      <c r="R7" s="2">
         <v>541008.9609375</v>
       </c>
-      <c r="O7" s="2">
+      <c r="S7" s="2">
         <v>11.492469952689</v>
       </c>
-      <c r="P7" s="2">
+      <c r="T7" s="2">
         <v>1458573.7734375</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="U7" s="2">
         <v>18.870533756583999</v>
       </c>
-      <c r="R7" s="2">
+      <c r="V7" s="2">
         <v>185664.2890625</v>
       </c>
-      <c r="S7" s="2">
+      <c r="W7" s="2">
         <v>6.7324536396530004</v>
       </c>
-      <c r="T7" s="2">
+      <c r="X7" s="2">
         <v>0.73125939215233104</v>
       </c>
-      <c r="U7" s="2">
+      <c r="Y7" s="2">
         <v>0.97321830633943596</v>
       </c>
-      <c r="V7" s="2">
+      <c r="Z7" s="2">
         <v>0.80463907999518802</v>
       </c>
-      <c r="W7" s="2">
+      <c r="AA7" s="2">
         <v>1.5159308953339501</v>
       </c>
-      <c r="X7" s="2">
+      <c r="AB7" s="2">
+        <v>27.255741</v>
+      </c>
+      <c r="AC7" s="2">
+        <v>17.140031</v>
+      </c>
+      <c r="AD7" s="2">
+        <v>24.024781999999998</v>
+      </c>
+      <c r="AE7" s="2">
+        <v>0.97843899999999995</v>
+      </c>
+      <c r="AF7" s="2">
         <v>52.584738269528302</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AG7" s="2">
         <v>262326.455078125</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AH7" s="2">
         <v>16.001996924554401</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AI7" s="2">
         <v>677143.20214843703</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AJ7" s="2">
         <v>25.7102294700938</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AK7" s="2">
         <v>87849.34375</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AL7" s="2">
         <v>9.2617588641155901</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AM7" s="2">
         <v>0.89960231376996103</v>
       </c>
-      <c r="AF7" s="2">
+      <c r="AN7" s="2">
         <v>1.12908159703346</v>
       </c>
-      <c r="AG7" s="2">
+      <c r="AO7" s="2">
         <v>1.10153678422122</v>
       </c>
-      <c r="AH7" s="2">
+      <c r="AP7" s="2">
         <v>1.8585976553053301</v>
       </c>
-      <c r="AI7" s="2">
+      <c r="AQ7" s="2">
+        <v>17.003789999999999</v>
+      </c>
+      <c r="AR7" s="2">
+        <v>8.2705140000000004</v>
+      </c>
+      <c r="AS7" s="2">
+        <v>15.42295</v>
+      </c>
+      <c r="AT7" s="2">
+        <v>0.97843899999999995</v>
+      </c>
+      <c r="AU7" s="2">
         <v>37.300541453769704</v>
       </c>
-      <c r="AJ7" s="2">
+      <c r="AV7" s="2">
         <v>82858.216888427705</v>
       </c>
-      <c r="AK7" s="2">
+      <c r="AW7" s="2">
         <v>17.978837574045102</v>
       </c>
-      <c r="AL7" s="2">
+      <c r="AX7" s="2">
         <v>211460.42227172799</v>
       </c>
-      <c r="AM7" s="2">
+      <c r="AY7" s="2">
         <v>28.735665548484</v>
       </c>
-      <c r="AN7" s="2">
+      <c r="AZ7" s="2">
         <v>57380.383209228501</v>
       </c>
-      <c r="AO7" s="2">
+      <c r="BA7" s="2">
         <v>14.970847500237401</v>
       </c>
-      <c r="AP7" s="2">
+      <c r="BB7" s="2">
         <v>1.268479490284</v>
       </c>
-      <c r="AQ7" s="2">
+      <c r="BC7" s="2">
         <v>1.57754003009032</v>
       </c>
-      <c r="AR7" s="2">
+      <c r="BD7" s="2">
         <v>1.38233060457791</v>
       </c>
-      <c r="AS7" s="2">
+      <c r="BE7" s="2">
         <v>2.00536096303246</v>
       </c>
-      <c r="AT7" s="2">
+      <c r="BF7" s="2">
+        <v>11.418552999999999</v>
+      </c>
+      <c r="BG7" s="2">
+        <v>6.3065790000000002</v>
+      </c>
+      <c r="BH7" s="2">
+        <v>8.0067400000000006</v>
+      </c>
+      <c r="BI7" s="2">
+        <v>0.97843899999999995</v>
+      </c>
+      <c r="BJ7" s="2">
         <v>22.7426833789476</v>
       </c>
-      <c r="AU7" s="2">
+      <c r="BK7" s="2">
         <v>18389.070474624601</v>
       </c>
-      <c r="AV7" s="2">
+      <c r="BL7" s="2">
         <v>16.768228071498701</v>
       </c>
-      <c r="AW7" s="2">
+      <c r="BM7" s="2">
         <v>21944.673173904401</v>
       </c>
-      <c r="AX7" s="2">
+      <c r="BN7" s="2">
         <v>18.5171554926543</v>
       </c>
-      <c r="AY7" s="2">
+      <c r="BO7" s="2">
         <v>15608.7040615081</v>
       </c>
-      <c r="AZ7" s="2">
+      <c r="BP7" s="2">
         <v>15.6056525399517</v>
       </c>
-      <c r="BA7" s="2">
+      <c r="BQ7" s="2">
         <v>1.84896853534557</v>
       </c>
-      <c r="BB7" s="2">
+      <c r="BR7" s="2">
         <v>2.2480359445626101</v>
       </c>
-      <c r="BC7" s="2">
+      <c r="BS7" s="2">
         <v>1.9056579249266301</v>
       </c>
-      <c r="BD7" s="2">
+      <c r="BT7" s="2">
         <v>2.30702868381064</v>
       </c>
-      <c r="BE7" s="2">
+      <c r="BU7" s="2">
+        <v>6.0672810000000004</v>
+      </c>
+      <c r="BV7" s="2">
+        <v>8.4996829999999992</v>
+      </c>
+      <c r="BW7" s="2">
+        <v>6.5067360000000001</v>
+      </c>
+      <c r="BX7" s="2">
+        <v>0.97843899999999995</v>
+      </c>
+      <c r="BY7" s="2">
         <v>17.182061248332101</v>
       </c>
-      <c r="BF7" s="2">
+      <c r="BZ7" s="2">
         <v>1481.8221391439399</v>
       </c>
-      <c r="BG7" s="2">
+      <c r="CA7" s="2">
         <v>8.8810180597346307</v>
       </c>
-      <c r="BH7" s="2">
+      <c r="CB7" s="2">
         <v>1236.9039272069899</v>
       </c>
-      <c r="BI7" s="2">
+      <c r="CC7" s="2">
         <v>8.7581487868840107</v>
       </c>
-      <c r="BJ7" s="2">
+      <c r="CD7" s="2">
         <v>833.37663018703404</v>
       </c>
-      <c r="BK7" s="2">
+      <c r="CE7" s="2">
         <v>7.0509781299456202</v>
       </c>
-      <c r="BL7" s="2">
+      <c r="CF7" s="2">
         <v>1.9823783116826901</v>
       </c>
-      <c r="BM7" s="2">
+      <c r="CG7" s="2">
         <v>2.0468544779094899</v>
       </c>
-      <c r="BN7" s="2">
+      <c r="CH7" s="2">
         <v>2.04127092237283</v>
       </c>
-      <c r="BO7" s="2">
+      <c r="CI7" s="2">
         <v>1.7122396358232399</v>
       </c>
-      <c r="BP7" s="2">
+      <c r="CJ7" s="2">
+        <v>4.0701590000000003</v>
+      </c>
+      <c r="CK7" s="2">
+        <v>5.109483</v>
+      </c>
+      <c r="CL7" s="2">
+        <v>5.253412</v>
+      </c>
+      <c r="CM7" s="2">
+        <v>0.97843899999999995</v>
+      </c>
+      <c r="CN7" s="2">
         <v>9.9344956306988497</v>
       </c>
-      <c r="BQ7" s="2">
+      <c r="CO7" s="2">
         <v>141.865066990256</v>
       </c>
-      <c r="BR7" s="2">
+      <c r="CP7" s="2">
         <v>3.8878807966517499</v>
       </c>
-      <c r="BS7" s="2">
+      <c r="CQ7" s="2">
         <v>611.72982282936505</v>
       </c>
-      <c r="BT7" s="2">
+      <c r="CR7" s="2">
         <v>12.3647182953345</v>
       </c>
-      <c r="BU7" s="2">
+      <c r="CS7" s="2">
         <v>32.521211400627998</v>
       </c>
-      <c r="BV7" s="2">
+      <c r="CT7" s="2">
         <v>1.9856935674212399</v>
       </c>
-      <c r="BW7" s="2">
+      <c r="CU7" s="2">
         <v>-6.5280999322092397</v>
       </c>
-      <c r="BX7" s="2">
+      <c r="CV7" s="2">
         <v>-31.135854410499601</v>
       </c>
-      <c r="BY7" s="2">
+      <c r="CW7" s="2">
         <v>-5.5215633453152702</v>
       </c>
-      <c r="BZ7" s="2">
+      <c r="CX7" s="2">
         <v>-70.183435441726999</v>
       </c>
-      <c r="CA7" s="2">
-        <v>0</v>
-      </c>
-      <c r="CB7" s="2">
+      <c r="CY7" s="2">
+        <v>3.4350170000000002</v>
+      </c>
+      <c r="CZ7" s="2">
+        <v>1.1173729999999999</v>
+      </c>
+      <c r="DA7" s="2">
+        <v>2.6291009999999999</v>
+      </c>
+      <c r="DB7" s="2">
+        <v>0.97843899999999995</v>
+      </c>
+      <c r="DC7" s="2">
+        <v>0</v>
+      </c>
+      <c r="DD7" s="2">
         <v>92.532563269138294</v>
       </c>
-      <c r="CC7" s="2">
-        <v>0</v>
-      </c>
-      <c r="CD7" s="2">
+      <c r="DE7" s="2">
+        <v>0</v>
+      </c>
+      <c r="DF7" s="2">
         <v>5.5482330322265598</v>
       </c>
-      <c r="CE7" s="2">
-        <v>0</v>
-      </c>
-      <c r="CF7" s="2">
+      <c r="DG7" s="2">
+        <v>0</v>
+      </c>
+      <c r="DH7" s="2">
         <v>0.61340713500976496</v>
       </c>
-      <c r="CG7" s="2">
-        <v>0</v>
-      </c>
-      <c r="CH7" s="2">
-        <v>0</v>
-      </c>
-      <c r="CI7" s="2">
-        <v>0</v>
-      </c>
-      <c r="CJ7" s="2">
-        <v>0</v>
-      </c>
-      <c r="CK7" s="2">
-        <v>0</v>
+      <c r="DI7" s="2">
+        <v>0</v>
+      </c>
+      <c r="DJ7" s="2">
+        <v>0</v>
+      </c>
+      <c r="DK7" s="2">
+        <v>0</v>
+      </c>
+      <c r="DL7" s="2">
+        <v>0</v>
+      </c>
+      <c r="DM7" s="2">
+        <v>0</v>
+      </c>
+      <c r="DN7" s="2">
+        <v>1</v>
+      </c>
+      <c r="DO7" s="2">
+        <v>1</v>
+      </c>
+      <c r="DP7" s="2">
+        <v>1</v>
+      </c>
+      <c r="DQ7" s="2">
+        <v>0.97843899999999995</v>
       </c>
     </row>
-    <row r="8" spans="1:170" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="8" spans="1:198" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>2</v>
       </c>
       <c r="B8" s="2">
@@ -2809,239 +3568,335 @@
         <v>0.29422113819232099</v>
       </c>
       <c r="M8" s="2">
+        <v>24.515509000000002</v>
+      </c>
+      <c r="N8" s="2">
+        <v>32.665275000000001</v>
+      </c>
+      <c r="O8" s="2">
+        <v>31.318390000000001</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0.38098100000000001</v>
+      </c>
+      <c r="Q8" s="2">
         <v>87.072143606750203</v>
       </c>
-      <c r="N8" s="2">
+      <c r="R8" s="2">
         <v>4849177.3828125</v>
       </c>
-      <c r="O8" s="2">
+      <c r="S8" s="2">
         <v>34.406751515334399</v>
       </c>
-      <c r="P8" s="2">
+      <c r="T8" s="2">
         <v>3804910.9296875</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="U8" s="2">
         <v>30.477357630501398</v>
       </c>
-      <c r="R8" s="2">
+      <c r="V8" s="2">
         <v>825986.9921875</v>
       </c>
-      <c r="S8" s="2">
+      <c r="W8" s="2">
         <v>14.2005372412557</v>
       </c>
-      <c r="T8" s="2">
+      <c r="X8" s="2">
         <v>0.408387587553246</v>
       </c>
-      <c r="U8" s="2">
+      <c r="Y8" s="2">
         <v>0.38414242963551898</v>
       </c>
-      <c r="V8" s="2">
+      <c r="Z8" s="2">
         <v>0.38014545641116299</v>
       </c>
-      <c r="W8" s="2">
+      <c r="AA8" s="2">
         <v>0.59363924426820602</v>
       </c>
-      <c r="X8" s="2">
+      <c r="AB8" s="2">
+        <v>13.704408000000001</v>
+      </c>
+      <c r="AC8" s="2">
+        <v>16.286422000000002</v>
+      </c>
+      <c r="AD8" s="2">
+        <v>20.550445</v>
+      </c>
+      <c r="AE8" s="2">
+        <v>0.38098100000000001</v>
+      </c>
+      <c r="AF8" s="2">
         <v>64.971652547467897</v>
       </c>
-      <c r="Y8" s="2">
+      <c r="AG8" s="2">
         <v>1550448.4628906201</v>
       </c>
-      <c r="Z8" s="2">
+      <c r="AH8" s="2">
         <v>38.911077214564003</v>
       </c>
-      <c r="AA8" s="2">
+      <c r="AI8" s="2">
         <v>1425038.9472656201</v>
       </c>
-      <c r="AB8" s="2">
+      <c r="AJ8" s="2">
         <v>37.303631511529098</v>
       </c>
-      <c r="AC8" s="2">
+      <c r="AK8" s="2">
         <v>465400.96875</v>
       </c>
-      <c r="AD8" s="2">
+      <c r="AL8" s="2">
         <v>21.317738787044899</v>
       </c>
-      <c r="AE8" s="2">
+      <c r="AM8" s="2">
         <v>0.60418810981730797</v>
       </c>
-      <c r="AF8" s="2">
+      <c r="AN8" s="2">
         <v>0.62700539780938602</v>
       </c>
-      <c r="AG8" s="2">
+      <c r="AO8" s="2">
         <v>0.62633297042945402</v>
       </c>
-      <c r="AH8" s="2">
+      <c r="AP8" s="2">
         <v>0.78274651325850797</v>
       </c>
-      <c r="AI8" s="2">
+      <c r="AQ8" s="2">
+        <v>9.4536599999999993</v>
+      </c>
+      <c r="AR8" s="2">
+        <v>10.528836999999999</v>
+      </c>
+      <c r="AS8" s="2">
+        <v>17.717006999999999</v>
+      </c>
+      <c r="AT8" s="2">
+        <v>0.38098100000000001</v>
+      </c>
+      <c r="AU8" s="2">
         <v>37.4862950350132</v>
       </c>
-      <c r="AJ8" s="2">
+      <c r="AV8" s="2">
         <v>268449.69131469697</v>
       </c>
-      <c r="AK8" s="2">
+      <c r="AW8" s="2">
         <v>32.344760320094203</v>
       </c>
-      <c r="AL8" s="2">
+      <c r="AX8" s="2">
         <v>315774.81918334903</v>
       </c>
-      <c r="AM8" s="2">
+      <c r="AY8" s="2">
         <v>35.091868485254899</v>
       </c>
-      <c r="AN8" s="2">
+      <c r="AZ8" s="2">
         <v>136695.37924194301</v>
       </c>
-      <c r="AO8" s="2">
+      <c r="BA8" s="2">
         <v>23.052494958841301</v>
       </c>
-      <c r="AP8" s="2">
+      <c r="BB8" s="2">
         <v>1.26400175402878</v>
       </c>
-      <c r="AQ8" s="2">
+      <c r="BC8" s="2">
         <v>1.41128820936541</v>
       </c>
-      <c r="AR8" s="2">
+      <c r="BD8" s="2">
         <v>1.1480929688752799</v>
       </c>
-      <c r="AS8" s="2">
+      <c r="BE8" s="2">
         <v>1.2300239626890801</v>
       </c>
-      <c r="AT8" s="2">
+      <c r="BF8" s="2">
+        <v>4.4598529999999998</v>
+      </c>
+      <c r="BG8" s="2">
+        <v>7.1913919999999996</v>
+      </c>
+      <c r="BH8" s="2">
+        <v>11.401967000000001</v>
+      </c>
+      <c r="BI8" s="2">
+        <v>0.38098100000000001</v>
+      </c>
+      <c r="BJ8" s="2">
         <v>13.046201323880799</v>
       </c>
-      <c r="AU8" s="2">
+      <c r="BK8" s="2">
         <v>23007.8925628662</v>
       </c>
-      <c r="AV8" s="2">
+      <c r="BL8" s="2">
         <v>18.033828058097601</v>
       </c>
-      <c r="AW8" s="2">
+      <c r="BM8" s="2">
         <v>36428.499263763399</v>
       </c>
-      <c r="AX8" s="2">
+      <c r="BN8" s="2">
         <v>23.8546056772261</v>
       </c>
-      <c r="AY8" s="2">
+      <c r="BO8" s="2">
         <v>19604.820747375401</v>
       </c>
-      <c r="AZ8" s="2">
+      <c r="BP8" s="2">
         <v>17.346364014939201</v>
       </c>
-      <c r="BA8" s="2">
+      <c r="BQ8" s="2">
         <v>2.5235353893312502</v>
       </c>
-      <c r="BB8" s="2">
+      <c r="BR8" s="2">
         <v>2.33481285119746</v>
       </c>
-      <c r="BC8" s="2">
+      <c r="BS8" s="2">
         <v>2.05912887045569</v>
       </c>
-      <c r="BD8" s="2">
+      <c r="BT8" s="2">
         <v>2.1064568296244799</v>
       </c>
-      <c r="BE8" s="2">
+      <c r="BU8" s="2">
+        <v>3.972855</v>
+      </c>
+      <c r="BV8" s="2">
+        <v>3.9660489999999999</v>
+      </c>
+      <c r="BW8" s="2">
+        <v>7.9654290000000003</v>
+      </c>
+      <c r="BX8" s="2">
+        <v>0.38098100000000001</v>
+      </c>
+      <c r="BY8" s="2">
         <v>6.0136030402429999</v>
       </c>
-      <c r="BF8" s="2">
+      <c r="BZ8" s="2">
         <v>406.39423120021797</v>
       </c>
-      <c r="BG8" s="2">
+      <c r="CA8" s="2">
         <v>4.9593702437911897</v>
       </c>
-      <c r="BH8" s="2">
+      <c r="CB8" s="2">
         <v>1129.7152758836701</v>
       </c>
-      <c r="BI8" s="2">
+      <c r="CC8" s="2">
         <v>8.3518573251290391</v>
       </c>
-      <c r="BJ8" s="2">
+      <c r="CD8" s="2">
         <v>608.52965223789204</v>
       </c>
-      <c r="BK8" s="2">
+      <c r="CE8" s="2">
         <v>6.1583566903598097</v>
       </c>
-      <c r="BL8" s="2">
+      <c r="CF8" s="2">
         <v>1.0842872532661301</v>
       </c>
-      <c r="BM8" s="2">
+      <c r="CG8" s="2">
         <v>0.58498895950875496</v>
       </c>
-      <c r="BN8" s="2">
+      <c r="CH8" s="2">
         <v>1.8198225122117699</v>
       </c>
-      <c r="BO8" s="2">
+      <c r="CI8" s="2">
         <v>1.68019350479478</v>
       </c>
-      <c r="BP8" s="2">
+      <c r="CJ8" s="2">
+        <v>5.0937539999999997</v>
+      </c>
+      <c r="CK8" s="2">
+        <v>5.331086</v>
+      </c>
+      <c r="CL8" s="2">
+        <v>7.4410189999999998</v>
+      </c>
+      <c r="CM8" s="2">
+        <v>0.38098100000000001</v>
+      </c>
+      <c r="CN8" s="2">
         <v>2.8345213043940398</v>
       </c>
-      <c r="BQ8" s="2">
+      <c r="CO8" s="2">
         <v>20.928280100226399</v>
       </c>
-      <c r="BR8" s="2">
+      <c r="CP8" s="2">
         <v>1.4744313249399801</v>
       </c>
-      <c r="BS8" s="2">
+      <c r="CQ8" s="2">
         <v>70.449919715523706</v>
       </c>
-      <c r="BT8" s="2">
+      <c r="CR8" s="2">
         <v>1.5950873131007901</v>
       </c>
-      <c r="BU8" s="2">
+      <c r="CS8" s="2">
         <v>21.1374421864748</v>
       </c>
-      <c r="BV8" s="2">
+      <c r="CT8" s="2">
         <v>2.1801994749620701</v>
       </c>
-      <c r="BW8" s="2">
+      <c r="CU8" s="2">
         <v>-42.721554599317201</v>
       </c>
-      <c r="BX8" s="2">
+      <c r="CV8" s="2">
         <v>-108.43354419627801</v>
       </c>
-      <c r="BY8" s="2">
+      <c r="CW8" s="2">
         <v>-94.106520956269506</v>
       </c>
-      <c r="BZ8" s="2">
+      <c r="CX8" s="2">
         <v>-68.675420875505694</v>
       </c>
-      <c r="CA8" s="2">
-        <v>0</v>
-      </c>
-      <c r="CB8" s="2">
+      <c r="CY8" s="2">
+        <v>2.9166699999999999</v>
+      </c>
+      <c r="CZ8" s="2">
+        <v>2.0743499999999999</v>
+      </c>
+      <c r="DA8" s="2">
+        <v>2.0261680000000002</v>
+      </c>
+      <c r="DB8" s="2">
+        <v>0.38098100000000001</v>
+      </c>
+      <c r="DC8" s="2">
+        <v>0</v>
+      </c>
+      <c r="DD8" s="2">
         <v>4.71081271860748</v>
       </c>
-      <c r="CC8" s="2">
-        <v>0</v>
-      </c>
-      <c r="CD8" s="2">
+      <c r="DE8" s="2">
+        <v>0</v>
+      </c>
+      <c r="DF8" s="2">
         <v>3.03426034841686</v>
       </c>
-      <c r="CE8" s="2">
-        <v>0</v>
-      </c>
-      <c r="CF8" s="2">
+      <c r="DG8" s="2">
+        <v>0</v>
+      </c>
+      <c r="DH8" s="2">
         <v>0.28943795803934302</v>
       </c>
-      <c r="CG8" s="2">
-        <v>0</v>
-      </c>
-      <c r="CH8" s="2">
-        <v>0</v>
-      </c>
-      <c r="CI8" s="2">
-        <v>0</v>
-      </c>
-      <c r="CJ8" s="2">
-        <v>0</v>
-      </c>
-      <c r="CK8" s="2">
-        <v>0</v>
+      <c r="DI8" s="2">
+        <v>0</v>
+      </c>
+      <c r="DJ8" s="2">
+        <v>0</v>
+      </c>
+      <c r="DK8" s="2">
+        <v>0</v>
+      </c>
+      <c r="DL8" s="2">
+        <v>0</v>
+      </c>
+      <c r="DM8" s="2">
+        <v>0</v>
+      </c>
+      <c r="DN8" s="2">
+        <v>1</v>
+      </c>
+      <c r="DO8" s="2">
+        <v>1</v>
+      </c>
+      <c r="DP8" s="2">
+        <v>1</v>
+      </c>
+      <c r="DQ8" s="2">
+        <v>0.38098100000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:170" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="9" spans="1:198" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>2</v>
       </c>
       <c r="B9" s="2">
@@ -3078,239 +3933,335 @@
         <v>0.940489187021882</v>
       </c>
       <c r="M9" s="2">
+        <v>39.809103</v>
+      </c>
+      <c r="N9" s="2">
+        <v>63.992986999999999</v>
+      </c>
+      <c r="O9" s="2">
+        <v>58.591780999999997</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0.98585500000000004</v>
+      </c>
+      <c r="Q9" s="2">
         <v>64.688691561424207</v>
       </c>
-      <c r="N9" s="2">
+      <c r="R9" s="2">
         <v>1557658.890625</v>
       </c>
-      <c r="O9" s="2">
+      <c r="S9" s="2">
         <v>19.500539493662998</v>
       </c>
-      <c r="P9" s="2">
+      <c r="T9" s="2">
         <v>468599.421875</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="U9" s="2">
         <v>10.694610236135899</v>
       </c>
-      <c r="R9" s="2">
+      <c r="V9" s="2">
         <v>165172.3125</v>
       </c>
-      <c r="S9" s="2">
+      <c r="W9" s="2">
         <v>6.3502179510975303</v>
       </c>
-      <c r="T9" s="2">
+      <c r="X9" s="2">
         <v>0.70373852355390298</v>
       </c>
-      <c r="U9" s="2">
+      <c r="Y9" s="2">
         <v>0.76239440418959503</v>
       </c>
-      <c r="V9" s="2">
+      <c r="Z9" s="2">
         <v>1.06123625223455</v>
       </c>
-      <c r="W9" s="2">
+      <c r="AA9" s="2">
         <v>1.2357490067325401</v>
       </c>
-      <c r="X9" s="2">
+      <c r="AB9" s="2">
+        <v>20.421416000000001</v>
+      </c>
+      <c r="AC9" s="2">
+        <v>25.962781</v>
+      </c>
+      <c r="AD9" s="2">
+        <v>47.873302000000002</v>
+      </c>
+      <c r="AE9" s="2">
+        <v>0.98585500000000004</v>
+      </c>
+      <c r="AF9" s="2">
         <v>56.133972127444999</v>
       </c>
-      <c r="Y9" s="2">
+      <c r="AG9" s="2">
         <v>729455.07470703102</v>
       </c>
-      <c r="Z9" s="2">
+      <c r="AH9" s="2">
         <v>26.6871170023547</v>
       </c>
-      <c r="AA9" s="2">
+      <c r="AI9" s="2">
         <v>237016.05908203099</v>
       </c>
-      <c r="AB9" s="2">
+      <c r="AJ9" s="2">
         <v>15.211752776014301</v>
       </c>
-      <c r="AC9" s="2">
+      <c r="AK9" s="2">
         <v>91939.351074218706</v>
       </c>
-      <c r="AD9" s="2">
+      <c r="AL9" s="2">
         <v>9.4747761908484005</v>
       </c>
-      <c r="AE9" s="2">
+      <c r="AM9" s="2">
         <v>0.86371183593953405</v>
       </c>
-      <c r="AF9" s="2">
+      <c r="AN9" s="2">
         <v>1.0432746464290801</v>
       </c>
-      <c r="AG9" s="2">
+      <c r="AO9" s="2">
         <v>1.0764262644325</v>
       </c>
-      <c r="AH9" s="2">
+      <c r="AP9" s="2">
         <v>1.2613621573628799</v>
       </c>
-      <c r="AI9" s="2">
+      <c r="AQ9" s="2">
+        <v>8.6918640000000007</v>
+      </c>
+      <c r="AR9" s="2">
+        <v>20.272314000000001</v>
+      </c>
+      <c r="AS9" s="2">
+        <v>29.05818</v>
+      </c>
+      <c r="AT9" s="2">
+        <v>0.98585500000000004</v>
+      </c>
+      <c r="AU9" s="2">
         <v>41.597132034598303</v>
       </c>
-      <c r="AJ9" s="2">
+      <c r="AV9" s="2">
         <v>234681.33108520499</v>
       </c>
-      <c r="AK9" s="2">
+      <c r="AW9" s="2">
         <v>30.256892124972499</v>
       </c>
-      <c r="AL9" s="2">
+      <c r="AX9" s="2">
         <v>76971.162322998003</v>
       </c>
-      <c r="AM9" s="2">
+      <c r="AY9" s="2">
         <v>17.292620797956499</v>
       </c>
-      <c r="AN9" s="2">
+      <c r="AZ9" s="2">
         <v>52047.073516845703</v>
       </c>
-      <c r="AO9" s="2">
+      <c r="BA9" s="2">
         <v>14.2521830378563</v>
       </c>
-      <c r="AP9" s="2">
+      <c r="BB9" s="2">
         <v>1.14484588360134</v>
       </c>
-      <c r="AQ9" s="2">
+      <c r="BC9" s="2">
         <v>1.3934701114425301</v>
       </c>
-      <c r="AR9" s="2">
+      <c r="BD9" s="2">
         <v>1.4266186798882401</v>
       </c>
-      <c r="AS9" s="2">
+      <c r="BE9" s="2">
         <v>1.8912561249865301</v>
       </c>
-      <c r="AT9" s="2">
+      <c r="BF9" s="2">
+        <v>5.5480489999999998</v>
+      </c>
+      <c r="BG9" s="2">
+        <v>12.925381</v>
+      </c>
+      <c r="BH9" s="2">
+        <v>10.992032999999999</v>
+      </c>
+      <c r="BI9" s="2">
+        <v>0.98585500000000004</v>
+      </c>
+      <c r="BJ9" s="2">
         <v>27.164751896830101</v>
       </c>
-      <c r="AU9" s="2">
+      <c r="BK9" s="2">
         <v>35596.384790420503</v>
       </c>
-      <c r="AV9" s="2">
+      <c r="BL9" s="2">
         <v>23.186703523673</v>
       </c>
-      <c r="AW9" s="2">
+      <c r="BM9" s="2">
         <v>13535.208215713499</v>
       </c>
-      <c r="AX9" s="2">
+      <c r="BN9" s="2">
         <v>14.431643850862001</v>
       </c>
-      <c r="AY9" s="2">
+      <c r="BO9" s="2">
         <v>14381.8564586639</v>
       </c>
-      <c r="AZ9" s="2">
+      <c r="BP9" s="2">
         <v>14.976658488479901</v>
       </c>
-      <c r="BA9" s="2">
+      <c r="BQ9" s="2">
         <v>1.56680562103008</v>
       </c>
-      <c r="BB9" s="2">
+      <c r="BR9" s="2">
         <v>1.8512296362213101</v>
       </c>
-      <c r="BC9" s="2">
+      <c r="BS9" s="2">
         <v>2.2800786171742198</v>
       </c>
-      <c r="BD9" s="2">
+      <c r="BT9" s="2">
         <v>2.1423593418134299</v>
       </c>
-      <c r="BE9" s="2">
+      <c r="BU9" s="2">
+        <v>5.3801990000000002</v>
+      </c>
+      <c r="BV9" s="2">
+        <v>9.1883649999999992</v>
+      </c>
+      <c r="BW9" s="2">
+        <v>6.7482049999999996</v>
+      </c>
+      <c r="BX9" s="2">
+        <v>0.98585500000000004</v>
+      </c>
+      <c r="BY9" s="2">
         <v>22.189193191677099</v>
       </c>
-      <c r="BF9" s="2">
+      <c r="BZ9" s="2">
         <v>1295.79858291149</v>
       </c>
-      <c r="BG9" s="2">
+      <c r="CA9" s="2">
         <v>8.7249820094636998</v>
       </c>
-      <c r="BH9" s="2">
+      <c r="CB9" s="2">
         <v>911.91721975803296</v>
       </c>
-      <c r="BI9" s="2">
+      <c r="CC9" s="2">
         <v>7.4307006346732098</v>
       </c>
-      <c r="BJ9" s="2">
+      <c r="CD9" s="2">
         <v>1721.2994152307499</v>
       </c>
-      <c r="BK9" s="2">
+      <c r="CE9" s="2">
         <v>10.292738799316901</v>
       </c>
-      <c r="BL9" s="2">
+      <c r="CF9" s="2">
         <v>1.7144867759761799</v>
       </c>
-      <c r="BM9" s="2">
+      <c r="CG9" s="2">
         <v>2.0157684347467</v>
       </c>
-      <c r="BN9" s="2">
+      <c r="CH9" s="2">
         <v>1.7272329067349601</v>
       </c>
-      <c r="BO9" s="2">
+      <c r="CI9" s="2">
         <v>1.9033573164148101</v>
       </c>
-      <c r="BP9" s="2">
+      <c r="CJ9" s="2">
+        <v>6.7273180000000004</v>
+      </c>
+      <c r="CK9" s="2">
+        <v>4.4587979999999998</v>
+      </c>
+      <c r="CL9" s="2">
+        <v>5.1336510000000004</v>
+      </c>
+      <c r="CM9" s="2">
+        <v>0.98585500000000004</v>
+      </c>
+      <c r="CN9" s="2">
         <v>14.907167540313701</v>
       </c>
-      <c r="BQ9" s="2">
+      <c r="CO9" s="2">
         <v>231.55323817580901</v>
       </c>
-      <c r="BR9" s="2">
+      <c r="CP9" s="2">
         <v>7.5466718264418597</v>
       </c>
-      <c r="BS9" s="2">
+      <c r="CQ9" s="2">
         <v>671.329103253781</v>
       </c>
-      <c r="BT9" s="2">
+      <c r="CR9" s="2">
         <v>12.4833449011395</v>
       </c>
-      <c r="BU9" s="2">
+      <c r="CS9" s="2">
         <v>177.66426026075999</v>
       </c>
-      <c r="BV9" s="2">
+      <c r="CT9" s="2">
         <v>6.5796325352403704</v>
       </c>
-      <c r="BW9" s="2">
+      <c r="CU9" s="2">
         <v>-1.98698037151927</v>
       </c>
-      <c r="BX9" s="2">
+      <c r="CV9" s="2">
         <v>-8.2031189053348008</v>
       </c>
-      <c r="BY9" s="2">
+      <c r="CW9" s="2">
         <v>-3.47915227910952</v>
       </c>
-      <c r="BZ9" s="2">
+      <c r="CX9" s="2">
         <v>-12.3427614358709</v>
       </c>
-      <c r="CA9" s="2">
-        <v>0</v>
-      </c>
-      <c r="CB9" s="2">
+      <c r="CY9" s="2">
+        <v>2.469363</v>
+      </c>
+      <c r="CZ9" s="2">
+        <v>1.93726</v>
+      </c>
+      <c r="DA9" s="2">
+        <v>3.207074</v>
+      </c>
+      <c r="DB9" s="2">
+        <v>0.98585500000000004</v>
+      </c>
+      <c r="DC9" s="2">
+        <v>0</v>
+      </c>
+      <c r="DD9" s="2">
         <v>78.507452198304193</v>
       </c>
-      <c r="CC9" s="2">
-        <v>0</v>
-      </c>
-      <c r="CD9" s="2">
+      <c r="DE9" s="2">
+        <v>0</v>
+      </c>
+      <c r="DF9" s="2">
         <v>115.486401692032</v>
       </c>
-      <c r="CE9" s="2">
-        <v>0</v>
-      </c>
-      <c r="CF9" s="2">
+      <c r="DG9" s="2">
+        <v>0</v>
+      </c>
+      <c r="DH9" s="2">
         <v>28.229790184646799</v>
       </c>
-      <c r="CG9" s="2">
-        <v>0</v>
-      </c>
-      <c r="CH9" s="2">
-        <v>0</v>
-      </c>
-      <c r="CI9" s="2">
-        <v>0</v>
-      </c>
-      <c r="CJ9" s="2">
-        <v>0</v>
-      </c>
-      <c r="CK9" s="2">
-        <v>0</v>
+      <c r="DI9" s="2">
+        <v>0</v>
+      </c>
+      <c r="DJ9" s="2">
+        <v>0</v>
+      </c>
+      <c r="DK9" s="2">
+        <v>0</v>
+      </c>
+      <c r="DL9" s="2">
+        <v>0</v>
+      </c>
+      <c r="DM9" s="2">
+        <v>0</v>
+      </c>
+      <c r="DN9" s="2">
+        <v>1</v>
+      </c>
+      <c r="DO9" s="2">
+        <v>1</v>
+      </c>
+      <c r="DP9" s="2">
+        <v>1</v>
+      </c>
+      <c r="DQ9" s="2">
+        <v>0.98585500000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:170" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="10" spans="1:198" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>2</v>
       </c>
       <c r="B10" s="2">
@@ -3347,239 +4298,335 @@
         <v>0.149476353292191</v>
       </c>
       <c r="M10" s="2">
+        <v>34.449337999999997</v>
+      </c>
+      <c r="N10" s="2">
+        <v>59.346677</v>
+      </c>
+      <c r="O10" s="2">
+        <v>48.483635999999997</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0.39543200000000001</v>
+      </c>
+      <c r="Q10" s="2">
         <v>104.65710907246</v>
       </c>
-      <c r="N10" s="2">
+      <c r="R10" s="2">
         <v>3843925.65234375</v>
       </c>
-      <c r="O10" s="2">
+      <c r="S10" s="2">
         <v>30.6322632889982</v>
       </c>
-      <c r="P10" s="2">
+      <c r="T10" s="2">
         <v>2024072.79296875</v>
       </c>
-      <c r="Q10" s="2">
+      <c r="U10" s="2">
         <v>22.228751443076501</v>
       </c>
-      <c r="R10" s="2">
+      <c r="V10" s="2">
         <v>490425.57421875</v>
       </c>
-      <c r="S10" s="2">
+      <c r="W10" s="2">
         <v>10.941472547943301</v>
       </c>
-      <c r="T10" s="2">
+      <c r="X10" s="2">
         <v>0.33143770431643699</v>
       </c>
-      <c r="U10" s="2">
+      <c r="Y10" s="2">
         <v>0.29708337542275898</v>
       </c>
-      <c r="V10" s="2">
+      <c r="Z10" s="2">
         <v>0.26243149299417701</v>
       </c>
-      <c r="W10" s="2">
+      <c r="AA10" s="2">
         <v>0.41591034809612998</v>
       </c>
-      <c r="X10" s="2">
+      <c r="AB10" s="2">
+        <v>17.322291</v>
+      </c>
+      <c r="AC10" s="2">
+        <v>32.12735</v>
+      </c>
+      <c r="AD10" s="2">
+        <v>39.547725999999997</v>
+      </c>
+      <c r="AE10" s="2">
+        <v>0.39543200000000001</v>
+      </c>
+      <c r="AF10" s="2">
         <v>91.106641682561801</v>
       </c>
-      <c r="Y10" s="2">
+      <c r="AG10" s="2">
         <v>1625668.09985351</v>
       </c>
-      <c r="Z10" s="2">
+      <c r="AH10" s="2">
         <v>39.844268342762099</v>
       </c>
-      <c r="AA10" s="2">
+      <c r="AI10" s="2">
         <v>847125.76000976504</v>
       </c>
-      <c r="AB10" s="2">
+      <c r="AJ10" s="2">
         <v>28.758977046571999</v>
       </c>
-      <c r="AC10" s="2">
+      <c r="AK10" s="2">
         <v>243561.02856445301</v>
       </c>
-      <c r="AD10" s="2">
+      <c r="AL10" s="2">
         <v>15.4224686073494</v>
       </c>
-      <c r="AE10" s="2">
+      <c r="AM10" s="2">
         <v>0.54588989911257002</v>
       </c>
-      <c r="AF10" s="2">
+      <c r="AN10" s="2">
         <v>0.52643873351749904</v>
       </c>
-      <c r="AG10" s="2">
+      <c r="AO10" s="2">
         <v>0.49817689460488601</v>
       </c>
-      <c r="AH10" s="2">
+      <c r="AP10" s="2">
         <v>0.82121004917545504</v>
       </c>
-      <c r="AI10" s="2">
+      <c r="AQ10" s="2">
+        <v>9.8716559999999998</v>
+      </c>
+      <c r="AR10" s="2">
+        <v>19.267033000000001</v>
+      </c>
+      <c r="AS10" s="2">
+        <v>18.054649000000001</v>
+      </c>
+      <c r="AT10" s="2">
+        <v>0.39543200000000001</v>
+      </c>
+      <c r="AU10" s="2">
         <v>66.029746472147593</v>
       </c>
-      <c r="AJ10" s="2">
+      <c r="AV10" s="2">
         <v>544156.27848815895</v>
       </c>
-      <c r="AK10" s="2">
+      <c r="AW10" s="2">
         <v>46.091741869791001</v>
       </c>
-      <c r="AL10" s="2">
+      <c r="AX10" s="2">
         <v>339009.814376831</v>
       </c>
-      <c r="AM10" s="2">
+      <c r="AY10" s="2">
         <v>36.361082470505401</v>
       </c>
-      <c r="AN10" s="2">
+      <c r="AZ10" s="2">
         <v>125600.048446655</v>
       </c>
-      <c r="AO10" s="2">
+      <c r="BA10" s="2">
         <v>22.1439200582453</v>
       </c>
-      <c r="AP10" s="2">
+      <c r="BB10" s="2">
         <v>0.80358675131825297</v>
       </c>
-      <c r="AQ10" s="2">
+      <c r="BC10" s="2">
         <v>0.87512018378349699</v>
       </c>
-      <c r="AR10" s="2">
+      <c r="BD10" s="2">
         <v>0.86759566605116301</v>
       </c>
-      <c r="AS10" s="2">
+      <c r="BE10" s="2">
         <v>1.21330049317808</v>
       </c>
-      <c r="AT10" s="2">
+      <c r="BF10" s="2">
+        <v>6.331696</v>
+      </c>
+      <c r="BG10" s="2">
+        <v>8.7056749999999994</v>
+      </c>
+      <c r="BH10" s="2">
+        <v>13.291599</v>
+      </c>
+      <c r="BI10" s="2">
+        <v>0.39543200000000001</v>
+      </c>
+      <c r="BJ10" s="2">
         <v>37.232962173402001</v>
       </c>
-      <c r="AU10" s="2">
+      <c r="BK10" s="2">
         <v>76746.995841026306</v>
       </c>
-      <c r="AV10" s="2">
+      <c r="BL10" s="2">
         <v>34.005669046299403</v>
       </c>
-      <c r="AW10" s="2">
+      <c r="BM10" s="2">
         <v>65562.165659904407</v>
       </c>
-      <c r="AX10" s="2">
+      <c r="BN10" s="2">
         <v>31.995734238228199</v>
       </c>
-      <c r="AY10" s="2">
+      <c r="BO10" s="2">
         <v>48003.411105155901</v>
       </c>
-      <c r="AZ10" s="2">
+      <c r="BP10" s="2">
         <v>27.307711994590399</v>
       </c>
-      <c r="BA10" s="2">
+      <c r="BQ10" s="2">
         <v>1.3363901603947901</v>
       </c>
-      <c r="BB10" s="2">
+      <c r="BR10" s="2">
         <v>1.2998677045545199</v>
       </c>
-      <c r="BC10" s="2">
+      <c r="BS10" s="2">
         <v>1.28624424436853</v>
       </c>
-      <c r="BD10" s="2">
+      <c r="BT10" s="2">
         <v>1.41728194314786</v>
       </c>
-      <c r="BE10" s="2">
+      <c r="BU10" s="2">
+        <v>5.9999599999999997</v>
+      </c>
+      <c r="BV10" s="2">
+        <v>9.8904630000000004</v>
+      </c>
+      <c r="BW10" s="2">
+        <v>7.9636290000000001</v>
+      </c>
+      <c r="BX10" s="2">
+        <v>0.39543200000000001</v>
+      </c>
+      <c r="BY10" s="2">
         <v>15.9472393916858</v>
       </c>
-      <c r="BF10" s="2">
+      <c r="BZ10" s="2">
         <v>3089.5148765444701</v>
       </c>
-      <c r="BG10" s="2">
+      <c r="CA10" s="2">
         <v>13.838761524334799</v>
       </c>
-      <c r="BH10" s="2">
+      <c r="CB10" s="2">
         <v>4292.7976247668203</v>
       </c>
-      <c r="BI10" s="2">
+      <c r="CC10" s="2">
         <v>14.9179546067506</v>
       </c>
-      <c r="BJ10" s="2">
+      <c r="CD10" s="2">
         <v>10729.351946532701</v>
       </c>
-      <c r="BK10" s="2">
+      <c r="CE10" s="2">
         <v>25.446440163666502</v>
       </c>
-      <c r="BL10" s="2">
+      <c r="CF10" s="2">
         <v>1.88530670682448</v>
       </c>
-      <c r="BM10" s="2">
+      <c r="CG10" s="2">
         <v>2.07285925412015</v>
       </c>
-      <c r="BN10" s="2">
+      <c r="CH10" s="2">
         <v>1.8765040927674099</v>
       </c>
-      <c r="BO10" s="2">
+      <c r="CI10" s="2">
         <v>1.82732756664245</v>
       </c>
-      <c r="BP10" s="2">
+      <c r="CJ10" s="2">
+        <v>2.96312</v>
+      </c>
+      <c r="CK10" s="2">
+        <v>4.4646929999999996</v>
+      </c>
+      <c r="CL10" s="2">
+        <v>2.415486</v>
+      </c>
+      <c r="CM10" s="2">
+        <v>0.39543200000000001</v>
+      </c>
+      <c r="CN10" s="2">
         <v>5.8801641155198601</v>
       </c>
-      <c r="BQ10" s="2">
+      <c r="CO10" s="2">
         <v>130.03808424994301</v>
       </c>
-      <c r="BR10" s="2">
+      <c r="CP10" s="2">
         <v>5.4327465349823001</v>
       </c>
-      <c r="BS10" s="2">
+      <c r="CQ10" s="2">
         <v>18.845083724707301</v>
       </c>
-      <c r="BT10" s="2">
+      <c r="CR10" s="2">
         <v>2.1521096692361299</v>
       </c>
-      <c r="BU10" s="2">
+      <c r="CS10" s="2">
         <v>730.06928878650001</v>
       </c>
-      <c r="BV10" s="2">
+      <c r="CT10" s="2">
         <v>13.275825640850901</v>
       </c>
-      <c r="BW10" s="2">
+      <c r="CU10" s="2">
         <v>-18.8470089148196</v>
       </c>
-      <c r="BX10" s="2">
+      <c r="CV10" s="2">
         <v>-19.228596841804201</v>
       </c>
-      <c r="BY10" s="2">
+      <c r="CW10" s="2">
         <v>-62.086951387246899</v>
       </c>
-      <c r="BZ10" s="2">
+      <c r="CX10" s="2">
         <v>-2.36664106061871</v>
       </c>
-      <c r="CA10" s="2">
-        <v>0</v>
-      </c>
-      <c r="CB10" s="2">
+      <c r="CY10" s="2">
+        <v>1.5465359999999999</v>
+      </c>
+      <c r="CZ10" s="2">
+        <v>2.0151729999999999</v>
+      </c>
+      <c r="DA10" s="2">
+        <v>2.4250799999999999</v>
+      </c>
+      <c r="DB10" s="2">
+        <v>0.39543200000000001</v>
+      </c>
+      <c r="DC10" s="2">
+        <v>0</v>
+      </c>
+      <c r="DD10" s="2">
         <v>0.59300057799555295</v>
       </c>
-      <c r="CC10" s="2">
-        <v>0</v>
-      </c>
-      <c r="CD10" s="2">
+      <c r="DE10" s="2">
+        <v>0</v>
+      </c>
+      <c r="DF10" s="2">
         <v>0.76394364261068404</v>
       </c>
-      <c r="CE10" s="2">
-        <v>0</v>
-      </c>
-      <c r="CF10" s="2">
+      <c r="DG10" s="2">
+        <v>0</v>
+      </c>
+      <c r="DH10" s="2">
         <v>33.219385804841203</v>
       </c>
-      <c r="CG10" s="2">
-        <v>0</v>
-      </c>
-      <c r="CH10" s="2">
-        <v>0</v>
-      </c>
-      <c r="CI10" s="2">
-        <v>0</v>
-      </c>
-      <c r="CJ10" s="2">
-        <v>0</v>
-      </c>
-      <c r="CK10" s="2">
-        <v>0</v>
+      <c r="DI10" s="2">
+        <v>0</v>
+      </c>
+      <c r="DJ10" s="2">
+        <v>0</v>
+      </c>
+      <c r="DK10" s="2">
+        <v>0</v>
+      </c>
+      <c r="DL10" s="2">
+        <v>0</v>
+      </c>
+      <c r="DM10" s="2">
+        <v>0</v>
+      </c>
+      <c r="DN10" s="2">
+        <v>1</v>
+      </c>
+      <c r="DO10" s="2">
+        <v>1</v>
+      </c>
+      <c r="DP10" s="2">
+        <v>1</v>
+      </c>
+      <c r="DQ10" s="2">
+        <v>0.39543200000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:170" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="11" spans="1:198" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>2</v>
       </c>
       <c r="B11" s="2">
@@ -3616,235 +4663,331 @@
         <v>0.28397163747300802</v>
       </c>
       <c r="M11" s="2">
+        <v>52.624042000000003</v>
+      </c>
+      <c r="N11" s="2">
+        <v>98.639000999999993</v>
+      </c>
+      <c r="O11" s="2">
+        <v>126.924324</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0.41699199999999997</v>
+      </c>
+      <c r="Q11" s="2">
         <v>56.1355706694604</v>
       </c>
-      <c r="N11" s="2">
+      <c r="R11" s="2">
         <v>1030440.09375</v>
       </c>
-      <c r="O11" s="2">
+      <c r="S11" s="2">
         <v>15.860060131343699</v>
       </c>
-      <c r="P11" s="2">
+      <c r="T11" s="2">
         <v>648981.984375</v>
       </c>
-      <c r="Q11" s="2">
+      <c r="U11" s="2">
         <v>12.586387050847399</v>
       </c>
-      <c r="R11" s="2">
+      <c r="V11" s="2">
         <v>387036.015625</v>
       </c>
-      <c r="S11" s="2">
+      <c r="W11" s="2">
         <v>9.7205816640349596</v>
       </c>
-      <c r="T11" s="2">
+      <c r="X11" s="2">
         <v>0.365364696791244</v>
       </c>
-      <c r="U11" s="2">
+      <c r="Y11" s="2">
         <v>0.434369168109143</v>
       </c>
-      <c r="V11" s="2">
+      <c r="Z11" s="2">
         <v>0.46359316196203498</v>
       </c>
-      <c r="W11" s="2">
+      <c r="AA11" s="2">
         <v>0.46081799217560898</v>
       </c>
-      <c r="X11" s="2">
+      <c r="AB11" s="2">
+        <v>36.872494000000003</v>
+      </c>
+      <c r="AC11" s="2">
+        <v>51.478161999999998</v>
+      </c>
+      <c r="AD11" s="2">
+        <v>69.756856999999997</v>
+      </c>
+      <c r="AE11" s="2">
+        <v>0.41699199999999997</v>
+      </c>
+      <c r="AF11" s="2">
         <v>51.717742781387898</v>
       </c>
-      <c r="Y11" s="2">
+      <c r="AG11" s="2">
         <v>256998.126953125</v>
       </c>
-      <c r="Z11" s="2">
+      <c r="AH11" s="2">
         <v>15.8387379722468</v>
       </c>
-      <c r="AA11" s="2">
+      <c r="AI11" s="2">
         <v>151009.396484375</v>
       </c>
-      <c r="AB11" s="2">
+      <c r="AJ11" s="2">
         <v>12.135985196009599</v>
       </c>
-      <c r="AC11" s="2">
+      <c r="AK11" s="2">
         <v>79905.3095703125</v>
       </c>
-      <c r="AD11" s="2">
+      <c r="AL11" s="2">
         <v>8.8334980503345992</v>
       </c>
-      <c r="AE11" s="2">
+      <c r="AM11" s="2">
         <v>0.50173935614172105</v>
       </c>
-      <c r="AF11" s="2">
+      <c r="AN11" s="2">
         <v>0.60045549263204101</v>
       </c>
-      <c r="AG11" s="2">
+      <c r="AO11" s="2">
         <v>0.79769010459109102</v>
       </c>
-      <c r="AH11" s="2">
+      <c r="AP11" s="2">
         <v>0.75378993567085595</v>
       </c>
-      <c r="AI11" s="2">
+      <c r="AQ11" s="2">
+        <v>28.177174000000001</v>
+      </c>
+      <c r="AR11" s="2">
+        <v>27.870135000000001</v>
+      </c>
+      <c r="AS11" s="2">
+        <v>36.808881</v>
+      </c>
+      <c r="AT11" s="2">
+        <v>0.41699199999999997</v>
+      </c>
+      <c r="AU11" s="2">
         <v>47.563544375078799</v>
       </c>
-      <c r="AJ11" s="2">
+      <c r="AV11" s="2">
         <v>38427.004058837803</v>
       </c>
-      <c r="AK11" s="2">
+      <c r="AW11" s="2">
         <v>12.251748917348101</v>
       </c>
-      <c r="AL11" s="2">
+      <c r="AX11" s="2">
         <v>45471.9569396972</v>
       </c>
-      <c r="AM11" s="2">
+      <c r="AY11" s="2">
         <v>13.3261276030807</v>
       </c>
-      <c r="AN11" s="2">
+      <c r="AZ11" s="2">
         <v>21684.185211181601</v>
       </c>
-      <c r="AO11" s="2">
+      <c r="BA11" s="2">
         <v>9.1957052238833494</v>
       </c>
-      <c r="AP11" s="2">
+      <c r="BB11" s="2">
         <v>0.71317201612290204</v>
       </c>
-      <c r="AQ11" s="2">
+      <c r="BC11" s="2">
         <v>0.93944783310200997</v>
       </c>
-      <c r="AR11" s="2">
+      <c r="BD11" s="2">
         <v>0.97869374465960401</v>
       </c>
-      <c r="AS11" s="2">
+      <c r="BE11" s="2">
         <v>1.0510367965493299</v>
       </c>
-      <c r="AT11" s="2">
+      <c r="BF11" s="2">
+        <v>20.043863999999999</v>
+      </c>
+      <c r="BG11" s="2">
+        <v>22.041084999999999</v>
+      </c>
+      <c r="BH11" s="2">
+        <v>37.995275999999997</v>
+      </c>
+      <c r="BI11" s="2">
+        <v>0.41699199999999997</v>
+      </c>
+      <c r="BJ11" s="2">
         <v>41.268840736797003</v>
       </c>
-      <c r="AU11" s="2">
+      <c r="BK11" s="2">
         <v>11541.9776287078</v>
       </c>
-      <c r="AV11" s="2">
+      <c r="BL11" s="2">
         <v>13.392987787151601</v>
       </c>
-      <c r="AW11" s="2">
+      <c r="BM11" s="2">
         <v>19433.147378921502</v>
       </c>
-      <c r="AX11" s="2">
+      <c r="BN11" s="2">
         <v>17.400238729436499</v>
       </c>
-      <c r="AY11" s="2">
+      <c r="BO11" s="2">
         <v>4811.9814090728696</v>
       </c>
-      <c r="AZ11" s="2">
+      <c r="BP11" s="2">
         <v>8.6609439412047795</v>
       </c>
-      <c r="BA11" s="2">
+      <c r="BQ11" s="2">
         <v>1.0315721294987199</v>
       </c>
-      <c r="BB11" s="2">
+      <c r="BR11" s="2">
         <v>1.5811793106871599</v>
       </c>
-      <c r="BC11" s="2">
+      <c r="BS11" s="2">
         <v>1.39191690115927</v>
       </c>
-      <c r="BD11" s="2">
+      <c r="BT11" s="2">
         <v>2.0654865677949998</v>
       </c>
-      <c r="BE11" s="2">
+      <c r="BU11" s="2">
+        <v>10.267104</v>
+      </c>
+      <c r="BV11" s="2">
+        <v>10.045671</v>
+      </c>
+      <c r="BW11" s="2">
+        <v>8.2833860000000001</v>
+      </c>
+      <c r="BX11" s="2">
+        <v>0.41699199999999997</v>
+      </c>
+      <c r="BY11" s="2">
         <v>27.752622973738699</v>
       </c>
-      <c r="BF11" s="2">
+      <c r="BZ11" s="2">
         <v>7108.184176445</v>
       </c>
-      <c r="BG11" s="2">
+      <c r="CA11" s="2">
         <v>21.075880206747101</v>
       </c>
-      <c r="BH11" s="2">
+      <c r="CB11" s="2">
         <v>5176.2837109565698</v>
       </c>
-      <c r="BI11" s="2">
+      <c r="CC11" s="2">
         <v>17.9722748879229</v>
       </c>
-      <c r="BJ11" s="2">
+      <c r="CD11" s="2">
         <v>2642.0782539844499</v>
       </c>
-      <c r="BK11" s="2">
+      <c r="CE11" s="2">
         <v>12.742111137267701</v>
       </c>
-      <c r="BL11" s="2">
+      <c r="CF11" s="2">
         <v>1.44050779285291</v>
       </c>
-      <c r="BM11" s="2">
+      <c r="CG11" s="2">
         <v>1.74175513380129</v>
       </c>
-      <c r="BN11" s="2">
+      <c r="CH11" s="2">
         <v>1.81322975067188</v>
       </c>
-      <c r="BO11" s="2">
+      <c r="CI11" s="2">
         <v>1.68741332655726</v>
       </c>
-      <c r="BP11" s="2">
+      <c r="CJ11" s="2">
+        <v>5.5457320000000001</v>
+      </c>
+      <c r="CK11" s="2">
+        <v>3.6375489999999999</v>
+      </c>
+      <c r="CL11" s="2">
+        <v>6.4459710000000001</v>
+      </c>
+      <c r="CM11" s="2">
+        <v>0.41699199999999997</v>
+      </c>
+      <c r="CN11" s="2">
         <v>10.516185259923599</v>
       </c>
-      <c r="BQ11" s="2">
+      <c r="CO11" s="2">
         <v>662.15009472519102</v>
       </c>
-      <c r="BR11" s="2">
+      <c r="CP11" s="2">
         <v>12.1765319016781</v>
       </c>
-      <c r="BS11" s="2">
+      <c r="CQ11" s="2">
         <v>1108.1897608563299</v>
       </c>
-      <c r="BT11" s="2">
+      <c r="CR11" s="2">
         <v>12.922446252054501</v>
       </c>
-      <c r="BU11" s="2">
+      <c r="CS11" s="2">
         <v>868.13186242431402</v>
       </c>
-      <c r="BV11" s="2">
+      <c r="CT11" s="2">
         <v>13.7802393363864</v>
       </c>
-      <c r="BW11" s="2">
+      <c r="CU11" s="2">
         <v>-4.3477281598829798</v>
       </c>
-      <c r="BX11" s="2">
+      <c r="CV11" s="2">
         <v>-4.8163589396149096</v>
       </c>
-      <c r="BY11" s="2">
+      <c r="CW11" s="2">
         <v>-2.9809750981244898</v>
       </c>
-      <c r="BZ11" s="2">
+      <c r="CX11" s="2">
         <v>-2.9927257148287598</v>
       </c>
-      <c r="CA11" s="2">
-        <v>0</v>
-      </c>
-      <c r="CB11" s="2">
+      <c r="CY11" s="2">
+        <v>1.7849189999999999</v>
+      </c>
+      <c r="CZ11" s="2">
+        <v>1.9427939999999999</v>
+      </c>
+      <c r="DA11" s="2">
+        <v>2.9459149999999998</v>
+      </c>
+      <c r="DB11" s="2">
+        <v>0.41699199999999997</v>
+      </c>
+      <c r="DC11" s="2">
+        <v>0</v>
+      </c>
+      <c r="DD11" s="2">
         <v>34.908306613564399</v>
       </c>
-      <c r="CC11" s="2">
-        <v>0</v>
-      </c>
-      <c r="CD11" s="2">
+      <c r="DE11" s="2">
+        <v>0</v>
+      </c>
+      <c r="DF11" s="2">
         <v>2.0159181440249001</v>
       </c>
-      <c r="CE11" s="2">
-        <v>0</v>
-      </c>
-      <c r="CF11" s="2">
+      <c r="DG11" s="2">
+        <v>0</v>
+      </c>
+      <c r="DH11" s="2">
         <v>73.665927663445402</v>
       </c>
-      <c r="CG11" s="2">
-        <v>0</v>
-      </c>
-      <c r="CH11" s="2">
-        <v>0</v>
-      </c>
-      <c r="CI11" s="2">
-        <v>0</v>
-      </c>
-      <c r="CJ11" s="2">
-        <v>0</v>
-      </c>
-      <c r="CK11" s="2">
-        <v>0</v>
+      <c r="DI11" s="2">
+        <v>0</v>
+      </c>
+      <c r="DJ11" s="2">
+        <v>0</v>
+      </c>
+      <c r="DK11" s="2">
+        <v>0</v>
+      </c>
+      <c r="DL11" s="2">
+        <v>0</v>
+      </c>
+      <c r="DM11" s="2">
+        <v>0</v>
+      </c>
+      <c r="DN11" s="2">
+        <v>1</v>
+      </c>
+      <c r="DO11" s="2">
+        <v>1</v>
+      </c>
+      <c r="DP11" s="2">
+        <v>1</v>
+      </c>
+      <c r="DQ11" s="2">
+        <v>0.41699199999999997</v>
       </c>
     </row>
   </sheetData>
